--- a/shardSystem 甘特图.xlsx
+++ b/shardSystem 甘特图.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>关于此甘特图</t>
   </si>
@@ -261,6 +261,37 @@
   <si>
     <t>网络数据测量</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息队列构建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建洲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deprecated</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上Transactin的编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本功能完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高并发的时候再来</t>
   </si>
 </sst>
 </file>
@@ -590,7 +621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,6 +871,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1221,7 +1264,7 @@
     <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1606,6 +1649,36 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="48" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="45" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="46" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1655,18 +1728,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="48" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1722,7 +1783,36 @@
     <cellStyle name="着色 6" xfId="46" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="24" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="67">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1866,6 +1956,35 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -2000,6 +2119,137 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2282,171 +2532,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2617,21 +2702,21 @@
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="甘特表格样式" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="65"/>
-      <tableStyleElement type="headerRow" dxfId="64"/>
-      <tableStyleElement type="firstRowStripe" dxfId="63"/>
-      <tableStyleElement type="secondRowStripe" dxfId="62"/>
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
+      <tableStyleElement type="firstRowStripe" dxfId="64"/>
+      <tableStyleElement type="secondRowStripe" dxfId="63"/>
     </tableStyle>
     <tableStyle name="待办事项列表" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="61"/>
-      <tableStyleElement type="headerRow" dxfId="60"/>
-      <tableStyleElement type="totalRow" dxfId="59"/>
-      <tableStyleElement type="firstColumn" dxfId="58"/>
-      <tableStyleElement type="lastColumn" dxfId="57"/>
-      <tableStyleElement type="firstRowStripe" dxfId="56"/>
-      <tableStyleElement type="secondRowStripe" dxfId="55"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="54"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="53"/>
+      <tableStyleElement type="wholeTable" dxfId="62"/>
+      <tableStyleElement type="headerRow" dxfId="61"/>
+      <tableStyleElement type="totalRow" dxfId="60"/>
+      <tableStyleElement type="firstColumn" dxfId="59"/>
+      <tableStyleElement type="lastColumn" dxfId="58"/>
+      <tableStyleElement type="firstRowStripe" dxfId="57"/>
+      <tableStyleElement type="secondRowStripe" dxfId="56"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="55"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="54"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2800,13 +2885,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>8</xdr:col>
+          <xdr:col>9</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>64</xdr:col>
+          <xdr:col>65</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>238125</xdr:rowOff>
@@ -2960,22 +3045,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="里程碑 4352" displayName="里程碑_4352" ref="B9:G30" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
-  <autoFilter ref="B9:G30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="里程碑 4352" displayName="里程碑_4352" ref="B9:H30" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="B9:H30">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" name="里程碑描述" dataDxfId="50"/>
-    <tableColumn id="2" name="类别" dataDxfId="49"/>
-    <tableColumn id="3" name="责任人" dataDxfId="48"/>
-    <tableColumn id="4" name="进度" dataDxfId="47"/>
-    <tableColumn id="5" name="开始" dataDxfId="46" dataCellStyle="日期"/>
-    <tableColumn id="6" name="天数" dataDxfId="45"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="里程碑描述" dataDxfId="32"/>
+    <tableColumn id="2" name="类别" dataDxfId="31"/>
+    <tableColumn id="3" name="责任人" dataDxfId="30"/>
+    <tableColumn id="4" name="进度" dataDxfId="29"/>
+    <tableColumn id="5" name="开始" dataDxfId="28" dataCellStyle="日期"/>
+    <tableColumn id="7" name="备注" dataDxfId="27" dataCellStyle="日期"/>
+    <tableColumn id="6" name="天数" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="待办事项列表" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2987,7 +3073,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="里程碑 435" displayName="里程碑_435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="里程碑 435" displayName="里程碑_435" ref="B9:G36" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="B9:G36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2997,9 +3083,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="里程碑描述" dataDxfId="43"/>
-    <tableColumn id="2" name="类别" dataDxfId="42"/>
-    <tableColumn id="3" name="责任人" dataDxfId="41"/>
+    <tableColumn id="1" name="里程碑描述" dataDxfId="15"/>
+    <tableColumn id="2" name="类别" dataDxfId="14"/>
+    <tableColumn id="3" name="责任人" dataDxfId="13"/>
     <tableColumn id="4" name="进度"/>
     <tableColumn id="5" name="开始" dataCellStyle="日期"/>
     <tableColumn id="6" name="天数"/>
@@ -3014,7 +3100,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="里程碑 43524" displayName="里程碑_43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="里程碑 43524" displayName="里程碑_43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B9:G36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3024,9 +3110,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="里程碑描述" dataDxfId="39"/>
-    <tableColumn id="2" name="类别" dataDxfId="38"/>
-    <tableColumn id="3" name="责任人" dataDxfId="37"/>
+    <tableColumn id="1" name="里程碑描述" dataDxfId="2"/>
+    <tableColumn id="2" name="类别" dataDxfId="1"/>
+    <tableColumn id="3" name="责任人" dataDxfId="0"/>
     <tableColumn id="4" name="进度"/>
     <tableColumn id="5" name="开始" dataCellStyle="日期"/>
     <tableColumn id="6" name="天数"/>
@@ -3335,11 +3421,11 @@
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="39"/>
       <c r="B2" s="41"/>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="41"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -3367,11 +3453,11 @@
     <row r="4" spans="1:13" s="6" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="39"/>
       <c r="B4" s="42"/>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
       <c r="F4" s="42"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
@@ -3384,11 +3470,11 @@
     <row r="5" spans="1:13" s="6" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="39"/>
       <c r="B5" s="42"/>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
       <c r="F5" s="42"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
@@ -3626,10 +3712,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BQ32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3640,38 +3726,39 @@
     <col min="4" max="4" width="20.6640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="9" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="2.77734375" style="9" customWidth="1"/>
-    <col min="9" max="64" width="3.6640625" style="9" customWidth="1"/>
-    <col min="65" max="65" width="2.77734375" style="9" customWidth="1"/>
-    <col min="66" max="16384" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="13.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.77734375" style="9" customWidth="1"/>
+    <col min="10" max="65" width="3.6640625" style="9" customWidth="1"/>
+    <col min="66" max="66" width="2.77734375" style="9" customWidth="1"/>
+    <col min="67" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:69" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="49"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
       <c r="X2" s="49"/>
@@ -3716,21 +3803,22 @@
       <c r="BK2" s="49"/>
       <c r="BL2" s="49"/>
       <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
     </row>
-    <row r="3" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="50"/>
       <c r="C3" s="51"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
       <c r="F3" s="53"/>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="33"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="54"/>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
+      <c r="M3" s="33"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
       <c r="P3" s="34"/>
@@ -3782,9 +3870,10 @@
       <c r="BJ3" s="34"/>
       <c r="BK3" s="34"/>
       <c r="BL3" s="34"/>
-      <c r="BM3" s="35"/>
+      <c r="BM3" s="34"/>
+      <c r="BN3" s="35"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="55" t="s">
         <v>36</v>
@@ -3793,45 +3882,45 @@
       <c r="D4" s="57"/>
       <c r="E4" s="58"/>
       <c r="F4" s="59"/>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="153" t="s">
+      <c r="I4" s="58"/>
+      <c r="J4" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="154" t="s">
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="155" t="s">
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="148" t="s">
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="148"/>
-      <c r="Z4" s="148"/>
-      <c r="AA4" s="148"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="149" t="s">
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="149"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="149"/>
-      <c r="AG4" s="35"/>
+      <c r="AE4" s="159"/>
+      <c r="AF4" s="159"/>
+      <c r="AG4" s="159"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
       <c r="AJ4" s="35"/>
@@ -3864,8 +3953,9 @@
       <c r="BK4" s="35"/>
       <c r="BL4" s="35"/>
       <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
     </row>
-    <row r="5" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="61" t="s">
         <v>37</v>
@@ -3874,9 +3964,9 @@
       <c r="D5" s="57"/>
       <c r="E5" s="58"/>
       <c r="F5" s="59"/>
-      <c r="G5" s="62"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="62"/>
-      <c r="I5" s="34"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
@@ -3932,105 +4022,107 @@
       <c r="BJ5" s="34"/>
       <c r="BK5" s="34"/>
       <c r="BL5" s="34"/>
-      <c r="BM5" s="35"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="35"/>
     </row>
-    <row r="6" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="63" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="64">
         <f ca="1">IFERROR(IF(MIN(里程碑_4352[开始])=0,TODAY(),B11(里程碑_4352[开始])),TODAY())</f>
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D6" s="65"/>
       <c r="E6" s="58"/>
       <c r="F6" s="66"/>
-      <c r="G6" s="58"/>
+      <c r="G6" s="66"/>
       <c r="H6" s="58"/>
-      <c r="I6" s="67" t="str">
-        <f ca="1">TEXT(I7,"m月")</f>
+      <c r="I6" s="58"/>
+      <c r="J6" s="67" t="str">
+        <f ca="1">TEXT(J7,"m月")</f>
         <v>6月</v>
       </c>
-      <c r="J6" s="67"/>
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
       <c r="M6" s="67"/>
       <c r="N6" s="67"/>
       <c r="O6" s="67"/>
-      <c r="P6" s="67" t="str">
-        <f ca="1">IF(TEXT(P7,"m月")=I6,"",TEXT(P7,"m月"))</f>
-        <v/>
-      </c>
-      <c r="Q6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67" t="str">
+        <f ca="1">IF(TEXT(Q7,"m月")=J6,"",TEXT(Q7,"m月"))</f>
+        <v/>
+      </c>
       <c r="R6" s="67"/>
       <c r="S6" s="67"/>
       <c r="T6" s="67"/>
       <c r="U6" s="67"/>
       <c r="V6" s="67"/>
-      <c r="W6" s="67" t="str">
-        <f ca="1">IF(OR(TEXT(W7,"m月")=P6,TEXT(W7,"m月")=I6),"",TEXT(W7,"m月"))</f>
-        <v/>
-      </c>
-      <c r="X6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67" t="str">
+        <f ca="1">IF(OR(TEXT(X7,"m月")=Q6,TEXT(X7,"m月")=J6),"",TEXT(X7,"m月"))</f>
+        <v/>
+      </c>
       <c r="Y6" s="67"/>
       <c r="Z6" s="67"/>
       <c r="AA6" s="67"/>
       <c r="AB6" s="67"/>
       <c r="AC6" s="67"/>
-      <c r="AD6" s="67" t="str">
-        <f ca="1">IF(OR(TEXT(AD7,"m月")=W6,TEXT(AD7,"m月")=P6,TEXT(AD7,"m月")=I6),"",TEXT(AD7,"m月"))</f>
-        <v/>
-      </c>
-      <c r="AE6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67" t="str">
+        <f ca="1">IF(OR(TEXT(AE7,"m月")=X6,TEXT(AE7,"m月")=Q6,TEXT(AE7,"m月")=J6),"",TEXT(AE7,"m月"))</f>
+        <v/>
+      </c>
       <c r="AF6" s="67"/>
       <c r="AG6" s="67"/>
       <c r="AH6" s="67"/>
       <c r="AI6" s="67"/>
       <c r="AJ6" s="67"/>
-      <c r="AK6" s="67" t="str">
-        <f ca="1">IF(OR(TEXT(AK7,"m月")=AD6,TEXT(AK7,"m月")=W6,TEXT(AK7,"m月")=P6,TEXT(AK7,"m月")=I6),"",TEXT(AK7,"m月"))</f>
+      <c r="AK6" s="67"/>
+      <c r="AL6" s="67" t="str">
+        <f ca="1">IF(OR(TEXT(AL7,"m月")=AE6,TEXT(AL7,"m月")=X6,TEXT(AL7,"m月")=Q6,TEXT(AL7,"m月")=J6),"",TEXT(AL7,"m月"))</f>
         <v>7月</v>
       </c>
-      <c r="AL6" s="67"/>
       <c r="AM6" s="67"/>
       <c r="AN6" s="67"/>
       <c r="AO6" s="67"/>
       <c r="AP6" s="67"/>
       <c r="AQ6" s="67"/>
-      <c r="AR6" s="67" t="str">
-        <f ca="1">IF(OR(TEXT(AR7,"m月")=AK6,TEXT(AR7,"m月")=AD6,TEXT(AR7,"m月")=W6,TEXT(AR7,"m月")=P6),"",TEXT(AR7,"m月"))</f>
-        <v/>
-      </c>
-      <c r="AS6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67" t="str">
+        <f ca="1">IF(OR(TEXT(AS7,"m月")=AL6,TEXT(AS7,"m月")=AE6,TEXT(AS7,"m月")=X6,TEXT(AS7,"m月")=Q6),"",TEXT(AS7,"m月"))</f>
+        <v/>
+      </c>
       <c r="AT6" s="67"/>
       <c r="AU6" s="67"/>
       <c r="AV6" s="67"/>
       <c r="AW6" s="67"/>
-      <c r="AX6" s="68"/>
-      <c r="AY6" s="68" t="str">
-        <f ca="1">IF(OR(TEXT(AY7,"m月")=AR6,TEXT(AY7,"m月")=AK6,TEXT(AY7,"m月")=AD6,TEXT(AY7,"m月")=W6),"",TEXT(AY7,"m月"))</f>
-        <v/>
-      </c>
-      <c r="AZ6" s="68"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68" t="str">
+        <f ca="1">IF(OR(TEXT(AZ7,"m月")=AS6,TEXT(AZ7,"m月")=AL6,TEXT(AZ7,"m月")=AE6,TEXT(AZ7,"m月")=X6),"",TEXT(AZ7,"m月"))</f>
+        <v/>
+      </c>
       <c r="BA6" s="68"/>
-      <c r="BB6" s="69"/>
-      <c r="BC6" s="70"/>
+      <c r="BB6" s="68"/>
+      <c r="BC6" s="69"/>
       <c r="BD6" s="70"/>
       <c r="BE6" s="70"/>
-      <c r="BF6" s="70" t="str">
-        <f ca="1">IF(OR(TEXT(BF7,"m月")=AY6,TEXT(BF7,"m月")=AR6,TEXT(BF7,"m月")=AK6,TEXT(BF7,"m月")=AD6),"",TEXT(BF7,"m月"))</f>
-        <v/>
-      </c>
-      <c r="BG6" s="70"/>
+      <c r="BF6" s="70"/>
+      <c r="BG6" s="70" t="str">
+        <f ca="1">IF(OR(TEXT(BG7,"m月")=AZ6,TEXT(BG7,"m月")=AS6,TEXT(BG7,"m月")=AL6,TEXT(BG7,"m月")=AE6),"",TEXT(BG7,"m月"))</f>
+        <v/>
+      </c>
       <c r="BH6" s="70"/>
       <c r="BI6" s="70"/>
       <c r="BJ6" s="70"/>
       <c r="BK6" s="70"/>
       <c r="BL6" s="70"/>
-      <c r="BM6" s="35"/>
+      <c r="BM6" s="70"/>
+      <c r="BN6" s="35"/>
     </row>
-    <row r="7" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="63" t="s">
         <v>7</v>
@@ -4042,234 +4134,235 @@
       <c r="E7" s="58"/>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="138">
+      <c r="H7" s="62"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="138">
         <f ca="1">IFERROR(项目_开始日期+滚动_增量,TODAY())</f>
-        <v>44351</v>
-      </c>
-      <c r="J7" s="139">
-        <f ca="1">I7+1</f>
-        <v>44352</v>
+        <v>44355</v>
       </c>
       <c r="K7" s="139">
-        <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44353</v>
+        <f ca="1">J7+1</f>
+        <v>44356</v>
       </c>
       <c r="L7" s="139">
-        <f t="shared" ca="1" si="0"/>
-        <v>44354</v>
+        <f t="shared" ref="L7:AY7" ca="1" si="0">K7+1</f>
+        <v>44357</v>
       </c>
       <c r="M7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44355</v>
+        <v>44358</v>
       </c>
       <c r="N7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44356</v>
-      </c>
-      <c r="O7" s="140">
+        <v>44359</v>
+      </c>
+      <c r="O7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44357</v>
-      </c>
-      <c r="P7" s="139">
-        <f ca="1">O7+1</f>
-        <v>44358</v>
+        <v>44360</v>
+      </c>
+      <c r="P7" s="140">
+        <f t="shared" ca="1" si="0"/>
+        <v>44361</v>
       </c>
       <c r="Q7" s="139">
         <f ca="1">P7+1</f>
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="R7" s="139">
-        <f t="shared" ca="1" si="0"/>
-        <v>44360</v>
+        <f ca="1">Q7+1</f>
+        <v>44363</v>
       </c>
       <c r="S7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="T7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="U7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44363</v>
-      </c>
-      <c r="V7" s="140">
+        <v>44366</v>
+      </c>
+      <c r="V7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44364</v>
-      </c>
-      <c r="W7" s="139">
-        <f ca="1">V7+1</f>
-        <v>44365</v>
+        <v>44367</v>
+      </c>
+      <c r="W7" s="140">
+        <f t="shared" ca="1" si="0"/>
+        <v>44368</v>
       </c>
       <c r="X7" s="139">
         <f ca="1">W7+1</f>
-        <v>44366</v>
+        <v>44369</v>
       </c>
       <c r="Y7" s="139">
-        <f t="shared" ca="1" si="0"/>
-        <v>44367</v>
+        <f ca="1">X7+1</f>
+        <v>44370</v>
       </c>
       <c r="Z7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="AA7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="AB7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44370</v>
-      </c>
-      <c r="AC7" s="140">
+        <v>44373</v>
+      </c>
+      <c r="AC7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44371</v>
-      </c>
-      <c r="AD7" s="139">
-        <f ca="1">AC7+1</f>
-        <v>44372</v>
+        <v>44374</v>
+      </c>
+      <c r="AD7" s="140">
+        <f t="shared" ca="1" si="0"/>
+        <v>44375</v>
       </c>
       <c r="AE7" s="139">
         <f ca="1">AD7+1</f>
-        <v>44373</v>
+        <v>44376</v>
       </c>
       <c r="AF7" s="139">
-        <f t="shared" ca="1" si="0"/>
-        <v>44374</v>
+        <f ca="1">AE7+1</f>
+        <v>44377</v>
       </c>
       <c r="AG7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="AH7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="AI7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44377</v>
-      </c>
-      <c r="AJ7" s="140">
+        <v>44380</v>
+      </c>
+      <c r="AJ7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44378</v>
-      </c>
-      <c r="AK7" s="139">
-        <f ca="1">AJ7+1</f>
-        <v>44379</v>
+        <v>44381</v>
+      </c>
+      <c r="AK7" s="140">
+        <f t="shared" ca="1" si="0"/>
+        <v>44382</v>
       </c>
       <c r="AL7" s="139">
         <f ca="1">AK7+1</f>
-        <v>44380</v>
+        <v>44383</v>
       </c>
       <c r="AM7" s="139">
-        <f t="shared" ca="1" si="0"/>
-        <v>44381</v>
+        <f ca="1">AL7+1</f>
+        <v>44384</v>
       </c>
       <c r="AN7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44382</v>
+        <v>44385</v>
       </c>
       <c r="AO7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="AP7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44384</v>
-      </c>
-      <c r="AQ7" s="140">
+        <v>44387</v>
+      </c>
+      <c r="AQ7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44385</v>
-      </c>
-      <c r="AR7" s="139">
-        <f ca="1">AQ7+1</f>
-        <v>44386</v>
+        <v>44388</v>
+      </c>
+      <c r="AR7" s="140">
+        <f t="shared" ca="1" si="0"/>
+        <v>44389</v>
       </c>
       <c r="AS7" s="139">
         <f ca="1">AR7+1</f>
-        <v>44387</v>
+        <v>44390</v>
       </c>
       <c r="AT7" s="139">
-        <f t="shared" ca="1" si="0"/>
-        <v>44388</v>
+        <f ca="1">AS7+1</f>
+        <v>44391</v>
       </c>
       <c r="AU7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44389</v>
+        <v>44392</v>
       </c>
       <c r="AV7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44390</v>
+        <v>44393</v>
       </c>
       <c r="AW7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44391</v>
-      </c>
-      <c r="AX7" s="140">
+        <v>44394</v>
+      </c>
+      <c r="AX7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44392</v>
-      </c>
-      <c r="AY7" s="139">
-        <f ca="1">AX7+1</f>
-        <v>44393</v>
+        <v>44395</v>
+      </c>
+      <c r="AY7" s="140">
+        <f t="shared" ca="1" si="0"/>
+        <v>44396</v>
       </c>
       <c r="AZ7" s="139">
         <f ca="1">AY7+1</f>
-        <v>44394</v>
+        <v>44397</v>
       </c>
       <c r="BA7" s="139">
-        <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44395</v>
+        <f ca="1">AZ7+1</f>
+        <v>44398</v>
       </c>
       <c r="BB7" s="139">
-        <f t="shared" ca="1" si="1"/>
-        <v>44396</v>
+        <f t="shared" ref="BB7:BF7" ca="1" si="1">BA7+1</f>
+        <v>44399</v>
       </c>
       <c r="BC7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44397</v>
+        <v>44400</v>
       </c>
       <c r="BD7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44398</v>
-      </c>
-      <c r="BE7" s="140">
+        <v>44401</v>
+      </c>
+      <c r="BE7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44399</v>
-      </c>
-      <c r="BF7" s="139">
-        <f ca="1">BE7+1</f>
-        <v>44400</v>
+        <v>44402</v>
+      </c>
+      <c r="BF7" s="140">
+        <f t="shared" ca="1" si="1"/>
+        <v>44403</v>
       </c>
       <c r="BG7" s="139">
         <f ca="1">BF7+1</f>
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="BH7" s="139">
-        <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44402</v>
+        <f ca="1">BG7+1</f>
+        <v>44405</v>
       </c>
       <c r="BI7" s="139">
-        <f t="shared" ca="1" si="2"/>
-        <v>44403</v>
+        <f t="shared" ref="BI7:BM7" ca="1" si="2">BH7+1</f>
+        <v>44406</v>
       </c>
       <c r="BJ7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44404</v>
+        <v>44407</v>
       </c>
       <c r="BK7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44405</v>
-      </c>
-      <c r="BL7" s="140">
+        <v>44408</v>
+      </c>
+      <c r="BL7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44406</v>
-      </c>
-      <c r="BM7" s="35"/>
+        <v>44409</v>
+      </c>
+      <c r="BM7" s="140">
+        <f t="shared" ca="1" si="2"/>
+        <v>44410</v>
+      </c>
+      <c r="BN7" s="35"/>
     </row>
-    <row r="8" spans="1:68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="73"/>
       <c r="C8" s="73"/>
@@ -4277,66 +4370,67 @@
       <c r="E8" s="62"/>
       <c r="F8" s="62"/>
       <c r="G8" s="62"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="75"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="75"/>
       <c r="L8" s="75"/>
       <c r="M8" s="75"/>
       <c r="N8" s="75"/>
       <c r="O8" s="75"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
       <c r="R8" s="75"/>
       <c r="S8" s="75"/>
       <c r="T8" s="75"/>
       <c r="U8" s="75"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="77"/>
       <c r="X8" s="75"/>
       <c r="Y8" s="75"/>
       <c r="Z8" s="75"/>
       <c r="AA8" s="75"/>
       <c r="AB8" s="75"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="77"/>
       <c r="AE8" s="75"/>
       <c r="AF8" s="75"/>
       <c r="AG8" s="75"/>
       <c r="AH8" s="75"/>
       <c r="AI8" s="75"/>
-      <c r="AJ8" s="77"/>
-      <c r="AK8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="77"/>
       <c r="AL8" s="75"/>
       <c r="AM8" s="75"/>
       <c r="AN8" s="75"/>
       <c r="AO8" s="75"/>
       <c r="AP8" s="75"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="75"/>
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="77"/>
       <c r="AS8" s="75"/>
       <c r="AT8" s="75"/>
       <c r="AU8" s="75"/>
       <c r="AV8" s="75"/>
       <c r="AW8" s="75"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="77"/>
       <c r="AZ8" s="75"/>
       <c r="BA8" s="75"/>
       <c r="BB8" s="75"/>
       <c r="BC8" s="75"/>
       <c r="BD8" s="75"/>
-      <c r="BE8" s="77"/>
-      <c r="BF8" s="75"/>
+      <c r="BE8" s="75"/>
+      <c r="BF8" s="77"/>
       <c r="BG8" s="75"/>
       <c r="BH8" s="75"/>
       <c r="BI8" s="75"/>
       <c r="BJ8" s="75"/>
       <c r="BK8" s="75"/>
-      <c r="BL8" s="78"/>
-      <c r="BM8" s="35"/>
+      <c r="BL8" s="75"/>
+      <c r="BM8" s="78"/>
+      <c r="BN8" s="35"/>
     </row>
-    <row r="9" spans="1:68" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="79" t="s">
         <v>8</v>
@@ -4354,244 +4448,247 @@
         <v>29</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82" t="str">
-        <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"aaa"),1)</f>
+        <v>60</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82" t="str">
+        <f t="shared" ref="J9:AO9" ca="1" si="3">LEFT(TEXT(J7,"aaa"),1)</f>
+        <v>二</v>
+      </c>
+      <c r="K9" s="82" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>三</v>
+      </c>
+      <c r="L9" s="82" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>四</v>
+      </c>
+      <c r="M9" s="82" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>五</v>
       </c>
-      <c r="J9" s="82" t="str">
+      <c r="N9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>六</v>
       </c>
-      <c r="K9" s="82" t="str">
+      <c r="O9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>日</v>
       </c>
-      <c r="L9" s="82" t="str">
+      <c r="P9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>一</v>
       </c>
-      <c r="M9" s="82" t="str">
+      <c r="Q9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>二</v>
       </c>
-      <c r="N9" s="82" t="str">
+      <c r="R9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>三</v>
       </c>
-      <c r="O9" s="82" t="str">
+      <c r="S9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>四</v>
       </c>
-      <c r="P9" s="82" t="str">
+      <c r="T9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>五</v>
       </c>
-      <c r="Q9" s="82" t="str">
+      <c r="U9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>六</v>
       </c>
-      <c r="R9" s="82" t="str">
+      <c r="V9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>日</v>
       </c>
-      <c r="S9" s="82" t="str">
+      <c r="W9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>一</v>
       </c>
-      <c r="T9" s="82" t="str">
+      <c r="X9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>二</v>
       </c>
-      <c r="U9" s="82" t="str">
+      <c r="Y9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>三</v>
       </c>
-      <c r="V9" s="82" t="str">
+      <c r="Z9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>四</v>
       </c>
-      <c r="W9" s="82" t="str">
+      <c r="AA9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>五</v>
       </c>
-      <c r="X9" s="82" t="str">
+      <c r="AB9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>六</v>
       </c>
-      <c r="Y9" s="82" t="str">
+      <c r="AC9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>日</v>
       </c>
-      <c r="Z9" s="82" t="str">
+      <c r="AD9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>一</v>
       </c>
-      <c r="AA9" s="82" t="str">
+      <c r="AE9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>二</v>
       </c>
-      <c r="AB9" s="82" t="str">
+      <c r="AF9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>三</v>
       </c>
-      <c r="AC9" s="82" t="str">
+      <c r="AG9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>四</v>
       </c>
-      <c r="AD9" s="82" t="str">
+      <c r="AH9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>五</v>
       </c>
-      <c r="AE9" s="82" t="str">
+      <c r="AI9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>六</v>
       </c>
-      <c r="AF9" s="82" t="str">
+      <c r="AJ9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>日</v>
       </c>
-      <c r="AG9" s="82" t="str">
+      <c r="AK9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>一</v>
       </c>
-      <c r="AH9" s="82" t="str">
+      <c r="AL9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>二</v>
       </c>
-      <c r="AI9" s="82" t="str">
+      <c r="AM9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>三</v>
       </c>
-      <c r="AJ9" s="82" t="str">
+      <c r="AN9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>四</v>
       </c>
-      <c r="AK9" s="82" t="str">
+      <c r="AO9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>五</v>
       </c>
-      <c r="AL9" s="82" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AP9" s="82" t="str">
+        <f t="shared" ref="AP9:BM9" ca="1" si="4">LEFT(TEXT(AP7,"aaa"),1)</f>
         <v>六</v>
       </c>
-      <c r="AM9" s="82" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AQ9" s="82" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>日</v>
       </c>
-      <c r="AN9" s="82" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AR9" s="82" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>一</v>
       </c>
-      <c r="AO9" s="82" t="str">
-        <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"aaa"),1)</f>
+      <c r="AS9" s="82" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>二</v>
       </c>
-      <c r="AP9" s="82" t="str">
+      <c r="AT9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>三</v>
       </c>
-      <c r="AQ9" s="82" t="str">
+      <c r="AU9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>四</v>
       </c>
-      <c r="AR9" s="82" t="str">
+      <c r="AV9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>五</v>
       </c>
-      <c r="AS9" s="82" t="str">
+      <c r="AW9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>六</v>
       </c>
-      <c r="AT9" s="82" t="str">
+      <c r="AX9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>日</v>
       </c>
-      <c r="AU9" s="82" t="str">
+      <c r="AY9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>一</v>
       </c>
-      <c r="AV9" s="82" t="str">
+      <c r="AZ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>二</v>
       </c>
-      <c r="AW9" s="82" t="str">
+      <c r="BA9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>三</v>
       </c>
-      <c r="AX9" s="82" t="str">
+      <c r="BB9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>四</v>
       </c>
-      <c r="AY9" s="82" t="str">
+      <c r="BC9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>五</v>
       </c>
-      <c r="AZ9" s="82" t="str">
+      <c r="BD9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>六</v>
       </c>
-      <c r="BA9" s="82" t="str">
+      <c r="BE9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>日</v>
       </c>
-      <c r="BB9" s="82" t="str">
+      <c r="BF9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>一</v>
       </c>
-      <c r="BC9" s="82" t="str">
+      <c r="BG9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>二</v>
       </c>
-      <c r="BD9" s="82" t="str">
+      <c r="BH9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>三</v>
       </c>
-      <c r="BE9" s="82" t="str">
+      <c r="BI9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>四</v>
       </c>
-      <c r="BF9" s="82" t="str">
+      <c r="BJ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>五</v>
       </c>
-      <c r="BG9" s="82" t="str">
+      <c r="BK9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>六</v>
       </c>
-      <c r="BH9" s="82" t="str">
+      <c r="BL9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>日</v>
       </c>
-      <c r="BI9" s="82" t="str">
+      <c r="BM9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>一</v>
       </c>
-      <c r="BJ9" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>二</v>
-      </c>
-      <c r="BK9" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>三</v>
-      </c>
-      <c r="BL9" s="82" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>四</v>
-      </c>
-      <c r="BM9" s="35"/>
+      <c r="BN9" s="35"/>
     </row>
-    <row r="10" spans="1:68" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:69" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="C10" s="11"/>
       <c r="D10" s="10"/>
       <c r="E10" s="12"/>
       <c r="F10" s="83"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="24"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
@@ -4647,9 +4744,10 @@
       <c r="BJ10" s="24"/>
       <c r="BK10" s="24"/>
       <c r="BL10" s="24"/>
-      <c r="BM10" s="35"/>
+      <c r="BM10" s="24"/>
+      <c r="BN10" s="35"/>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="84" t="s">
         <v>44</v>
@@ -4658,14 +4756,11 @@
       <c r="D11" s="85"/>
       <c r="E11" s="86"/>
       <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="17" t="str">
-        <f t="shared" ref="I11:X23" ca="1" si="5">IF(AND($C11="目标",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),2,IF(AND($C11="里程碑",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
       <c r="J11" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="J11:AO11" ca="1" si="5">IF(AND($C11="目标",J$7&gt;=$F11,J$7&lt;=$F11+$H11-1),2,IF(AND($C11="里程碑",J$7&gt;=$F11,J$7&lt;=$F11+$H11-1),1,""))</f>
         <v/>
       </c>
       <c r="K11" s="17" t="str">
@@ -4725,406 +4820,411 @@
         <v/>
       </c>
       <c r="Y11" s="17" t="str">
-        <f t="shared" ref="Y11:AN22" ca="1" si="6">IF(AND($C11="目标",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),2,IF(AND($C11="里程碑",Y$7&gt;=$F11,Y$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="Z11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AA11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AB11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AC11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AD11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AE11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AF11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AG11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AH11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AI11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AJ11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AK11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AL11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AM11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AN11" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AO11" s="17" t="str">
-        <f t="shared" ref="AO11:BD22" ca="1" si="7">IF(AND($C11="目标",AO$7&gt;=$F11,AO$7&lt;=$F11+$G11-1),2,IF(AND($C11="里程碑",AO$7&gt;=$F11,AO$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AP11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="AP11:BM11" ca="1" si="6">IF(AND($C11="目标",AP$7&gt;=$F11,AP$7&lt;=$F11+$H11-1),2,IF(AND($C11="里程碑",AP$7&gt;=$F11,AP$7&lt;=$F11+$H11-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="AR11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="AS11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="AT11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="AU11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="AV11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="AW11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="AX11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="AY11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="AZ11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BA11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BB11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BC11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BD11" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BE11" s="17" t="str">
-        <f t="shared" ref="BE11:BL22" ca="1" si="8">IF(AND($C11="目标",BE$7&gt;=$F11,BE$7&lt;=$F11+$G11-1),2,IF(AND($C11="里程碑",BE$7&gt;=$F11,BE$7&lt;=$F11+$G11-1),1,""))</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BF11" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BG11" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BH11" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BI11" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BJ11" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BK11" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="BL11" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BM11" s="15"/>
-      <c r="BP11" s="25"/>
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="BM11" s="17" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="BN11" s="15"/>
+      <c r="BQ11" s="25"/>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",K$7&gt;=$F13,K$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",K$7&gt;=$F13,K$7&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",L$7&gt;=$F13,L$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",L$7&gt;=$F13,L$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ref="J12:W12" ca="1" si="7">IF(AND($C13="目标",L$7&gt;=$F13,L$7&lt;=$F13+$H13-1),2,IF(AND($C13="里程碑",L$7&gt;=$F13,L$7&lt;=$F13+$H13-1),1,""))</f>
         <v/>
       </c>
       <c r="K12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",M$7&gt;=$F13,M$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="L12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",N$7&gt;=$F13,N$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",N$7&gt;=$F13,N$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="M12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",O$7&gt;=$F13,O$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",O$7&gt;=$F13,O$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="N12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",P$7&gt;=$F13,P$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",P$7&gt;=$F13,P$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="O12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",Q$7&gt;=$F13,Q$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",Q$7&gt;=$F13,Q$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="P12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",R$7&gt;=$F13,R$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",R$7&gt;=$F13,R$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="Q12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",S$7&gt;=$F13,S$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",S$7&gt;=$F13,S$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="R12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",T$7&gt;=$F13,T$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",T$7&gt;=$F13,T$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="S12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",U$7&gt;=$F13,U$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",U$7&gt;=$F13,U$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="T12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",V$7&gt;=$F13,V$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",V$7&gt;=$F13,V$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="U12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",W$7&gt;=$F13,W$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",W$7&gt;=$F13,W$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="V12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",X$7&gt;=$F13,X$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",X$7&gt;=$F13,X$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="W12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",W$7&gt;=$F13,W$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",W$7&gt;=$F13,W$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="X12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",X$7&gt;=$F13,X$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",X$7&gt;=$F13,X$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ref="X12:BM12" ca="1" si="8">IF(AND($C13="目标",X$7&gt;=$F13,X$7&lt;=$F13+$H13-1),2,IF(AND($C13="里程碑",X$7&gt;=$F13,X$7&lt;=$F13+$H13-1),1,""))</f>
         <v/>
       </c>
       <c r="Y12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",Y$7&gt;=$F13,Y$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",Y$7&gt;=$F13,Y$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="Z12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",Z$7&gt;=$F13,Z$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",Z$7&gt;=$F13,Z$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AA12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AA$7&gt;=$F13,AA$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AA$7&gt;=$F13,AA$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AB12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AB$7&gt;=$F13,AB$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AB$7&gt;=$F13,AB$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AC12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AC$7&gt;=$F13,AC$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AC$7&gt;=$F13,AC$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AD12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AD$7&gt;=$F13,AD$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AD$7&gt;=$F13,AD$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AE12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AE$7&gt;=$F13,AE$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AE$7&gt;=$F13,AE$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AF12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AF$7&gt;=$F13,AF$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AF$7&gt;=$F13,AF$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AG12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AG$7&gt;=$F13,AG$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AG$7&gt;=$F13,AG$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AH12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AH$7&gt;=$F13,AH$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AH$7&gt;=$F13,AH$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AI12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AI$7&gt;=$F13,AI$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AI$7&gt;=$F13,AI$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AJ12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AJ$7&gt;=$F13,AJ$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AJ$7&gt;=$F13,AJ$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AK12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AK$7&gt;=$F13,AK$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AK$7&gt;=$F13,AK$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AL12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AL$7&gt;=$F13,AL$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AL$7&gt;=$F13,AL$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AM12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AM$7&gt;=$F13,AM$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AM$7&gt;=$F13,AM$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AN12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AN$7&gt;=$F13,AN$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AN$7&gt;=$F13,AN$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AO12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AO$7&gt;=$F13,AO$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AO$7&gt;=$F13,AO$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AP12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AP$7&gt;=$F13,AP$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AP$7&gt;=$F13,AP$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AQ12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AQ$7&gt;=$F13,AQ$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AQ$7&gt;=$F13,AQ$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AR12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AR$7&gt;=$F13,AR$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AR$7&gt;=$F13,AR$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AS12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AS$7&gt;=$F13,AS$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AS$7&gt;=$F13,AS$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AT12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AT$7&gt;=$F13,AT$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AT$7&gt;=$F13,AT$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AU12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AU$7&gt;=$F13,AU$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AU$7&gt;=$F13,AU$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AV12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AV$7&gt;=$F13,AV$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AV$7&gt;=$F13,AV$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AW12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AW$7&gt;=$F13,AW$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AW$7&gt;=$F13,AW$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AX12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AX$7&gt;=$F13,AX$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AX$7&gt;=$F13,AX$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AY12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AY$7&gt;=$F13,AY$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AY$7&gt;=$F13,AY$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="AZ12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",AZ$7&gt;=$F13,AZ$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",AZ$7&gt;=$F13,AZ$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BA12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BA$7&gt;=$F13,BA$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BA$7&gt;=$F13,BA$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BB12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BB$7&gt;=$F13,BB$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BB$7&gt;=$F13,BB$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BC12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BC$7&gt;=$F13,BC$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BC$7&gt;=$F13,BC$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BD12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BD$7&gt;=$F13,BD$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BD$7&gt;=$F13,BD$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BE12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BE$7&gt;=$F13,BE$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BE$7&gt;=$F13,BE$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BF12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BF$7&gt;=$F13,BF$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BF$7&gt;=$F13,BF$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BG12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BG$7&gt;=$F13,BG$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BG$7&gt;=$F13,BG$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BH12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BH$7&gt;=$F13,BH$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BH$7&gt;=$F13,BH$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BI12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BI$7&gt;=$F13,BI$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BI$7&gt;=$F13,BI$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BJ12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BJ$7&gt;=$F13,BJ$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BJ$7&gt;=$F13,BJ$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BK12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BK$7&gt;=$F13,BK$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BK$7&gt;=$F13,BK$7&lt;=$F13+$G13-1),1,""))</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="BL12" s="17" t="str">
-        <f ca="1">IF(AND($C13="目标",BL$7&gt;=$F13,BL$7&lt;=$F13+$G13-1),2,IF(AND($C13="里程碑",BL$7&gt;=$F13,BL$7&lt;=$F13+$G13-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BM12" s="15"/>
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BM12" s="17" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="BN12" s="15"/>
     </row>
-    <row r="13" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="90" t="s">
         <v>51</v>
@@ -5136,16 +5236,14 @@
         <v>39</v>
       </c>
       <c r="E13" s="86">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F13" s="87">
         <v>44344</v>
       </c>
-      <c r="G13" s="88">
-        <v>7</v>
-      </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="17"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -5201,18 +5299,19 @@
       <c r="BJ13" s="17"/>
       <c r="BK13" s="17"/>
       <c r="BL13" s="17"/>
-      <c r="BM13" s="15"/>
+      <c r="BM13" s="17"/>
+      <c r="BN13" s="15"/>
     </row>
-    <row r="14" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="90"/>
       <c r="C14" s="90"/>
       <c r="D14" s="90"/>
       <c r="E14" s="90"/>
       <c r="F14" s="87"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="17"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
@@ -5268,246 +5367,245 @@
       <c r="BJ14" s="17"/>
       <c r="BK14" s="17"/>
       <c r="BL14" s="17"/>
-      <c r="BM14" s="15"/>
+      <c r="BM14" s="17"/>
+      <c r="BN14" s="15"/>
     </row>
-    <row r="15" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="165"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="87"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="G15" s="87"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="89"/>
       <c r="J15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",J$7&gt;=$F16,J$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",J$7&gt;=$F16,J$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ref="J15:AO15" ca="1" si="9">IF(AND($C16="目标",J$7&gt;=$F16,J$7&lt;=$F16+$H16-1),2,IF(AND($C16="里程碑",J$7&gt;=$F16,J$7&lt;=$F16+$H16-1),1,""))</f>
         <v/>
       </c>
       <c r="K15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",K$7&gt;=$F16,K$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",K$7&gt;=$F16,K$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="L15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",L$7&gt;=$F16,L$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",L$7&gt;=$F16,L$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="M15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",M$7&gt;=$F16,M$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",M$7&gt;=$F16,M$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="N15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",N$7&gt;=$F16,N$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",N$7&gt;=$F16,N$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="O15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",O$7&gt;=$F16,O$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",O$7&gt;=$F16,O$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="P15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",P$7&gt;=$F16,P$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",P$7&gt;=$F16,P$7&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Q15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",Q$7&gt;=$F16,Q$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",Q$7&gt;=$F16,Q$7&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="Q15" s="17"/>
       <c r="R15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",R$7&gt;=$F16,R$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",R$7&gt;=$F16,R$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="S15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",S$7&gt;=$F16,S$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",S$7&gt;=$F16,S$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="T15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",T$7&gt;=$F16,T$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",T$7&gt;=$F16,T$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="U15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",U$7&gt;=$F16,U$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",U$7&gt;=$F16,U$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="V15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",V$7&gt;=$F16,V$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",V$7&gt;=$F16,V$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="W15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",W$7&gt;=$F16,W$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",W$7&gt;=$F16,W$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="X15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",X$7&gt;=$F16,X$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",X$7&gt;=$F16,X$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Y15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",Y$7&gt;=$F16,Y$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",Y$7&gt;=$F16,Y$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="Z15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",Z$7&gt;=$F16,Z$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",Z$7&gt;=$F16,Z$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AA15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AA$7&gt;=$F16,AA$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AA$7&gt;=$F16,AA$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AB15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AB$7&gt;=$F16,AB$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AB$7&gt;=$F16,AB$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AC15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AC$7&gt;=$F16,AC$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AC$7&gt;=$F16,AC$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AD15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AD$7&gt;=$F16,AD$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AD$7&gt;=$F16,AD$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AE15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AE$7&gt;=$F16,AE$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AE$7&gt;=$F16,AE$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AF15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AF$7&gt;=$F16,AF$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AF$7&gt;=$F16,AF$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AG15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AG$7&gt;=$F16,AG$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AG$7&gt;=$F16,AG$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AH15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AH$7&gt;=$F16,AH$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AH$7&gt;=$F16,AH$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AI15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AI$7&gt;=$F16,AI$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AJ15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AJ$7&gt;=$F16,AJ$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AJ$7&gt;=$F16,AJ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AK15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AK$7&gt;=$F16,AK$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AK$7&gt;=$F16,AK$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AL15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AL$7&gt;=$F16,AL$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AL$7&gt;=$F16,AL$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AM15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AM$7&gt;=$F16,AM$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AM$7&gt;=$F16,AM$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AN15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AN$7&gt;=$F16,AN$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AN$7&gt;=$F16,AN$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AO15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AO$7&gt;=$F16,AO$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AO$7&gt;=$F16,AO$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="AP15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AP$7&gt;=$F16,AP$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AP$7&gt;=$F16,AP$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ref="AP15:BM15" ca="1" si="10">IF(AND($C16="目标",AP$7&gt;=$F16,AP$7&lt;=$F16+$H16-1),2,IF(AND($C16="里程碑",AP$7&gt;=$F16,AP$7&lt;=$F16+$H16-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AQ$7&gt;=$F16,AQ$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AQ$7&gt;=$F16,AQ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AR15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AR$7&gt;=$F16,AR$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AR$7&gt;=$F16,AR$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AS15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AS$7&gt;=$F16,AS$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AS$7&gt;=$F16,AS$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AT15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AT$7&gt;=$F16,AT$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AT$7&gt;=$F16,AT$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AU15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AU$7&gt;=$F16,AU$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AU$7&gt;=$F16,AU$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AV15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AV$7&gt;=$F16,AV$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AV$7&gt;=$F16,AV$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AW15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AW$7&gt;=$F16,AW$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AW$7&gt;=$F16,AW$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AX15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AX$7&gt;=$F16,AX$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AX$7&gt;=$F16,AX$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AY15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AY$7&gt;=$F16,AY$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AY$7&gt;=$F16,AY$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="AZ15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",AZ$7&gt;=$F16,AZ$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",AZ$7&gt;=$F16,AZ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BA15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BA$7&gt;=$F16,BA$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BA$7&gt;=$F16,BA$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BB15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BB$7&gt;=$F16,BB$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BB$7&gt;=$F16,BB$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BC15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BC$7&gt;=$F16,BC$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BC$7&gt;=$F16,BC$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BD15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BD$7&gt;=$F16,BD$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BD$7&gt;=$F16,BD$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BE15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BE$7&gt;=$F16,BE$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BE$7&gt;=$F16,BE$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BF15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BF$7&gt;=$F16,BF$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BF$7&gt;=$F16,BF$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BG15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BG$7&gt;=$F16,BG$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BG$7&gt;=$F16,BG$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BH15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BH$7&gt;=$F16,BH$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BH$7&gt;=$F16,BH$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BI15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BI$7&gt;=$F16,BI$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BI$7&gt;=$F16,BI$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BJ15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BJ$7&gt;=$F16,BJ$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BJ$7&gt;=$F16,BJ$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BK15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BK$7&gt;=$F16,BK$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BK$7&gt;=$F16,BK$7&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="BL15" s="17" t="str">
-        <f ca="1">IF(AND($C16="目标",BL$7&gt;=$F16,BL$7&lt;=$F16+$G16-1),2,IF(AND($C16="里程碑",BL$7&gt;=$F16,BL$7&lt;=$F16+$G16-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="BM15" s="15"/>
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BM15" s="17" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v/>
+      </c>
+      <c r="BN15" s="15"/>
     </row>
-    <row r="16" spans="1:68" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="90" t="s">
         <v>52</v>
@@ -5519,14 +5617,16 @@
         <v>41</v>
       </c>
       <c r="E16" s="86">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="F16" s="87">
         <v>44350</v>
       </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="17"/>
+      <c r="G16" s="155" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="88"/>
+      <c r="I16" s="89"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
@@ -5582,9 +5682,10 @@
       <c r="BJ16" s="17"/>
       <c r="BK16" s="17"/>
       <c r="BL16" s="17"/>
-      <c r="BM16" s="15"/>
+      <c r="BM16" s="17"/>
+      <c r="BN16" s="15"/>
     </row>
-    <row r="17" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="90" t="s">
         <v>53</v>
@@ -5601,9 +5702,9 @@
       <c r="F17" s="87">
         <v>44349</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="17"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="89"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
@@ -5659,9 +5760,10 @@
       <c r="BJ17" s="17"/>
       <c r="BK17" s="17"/>
       <c r="BL17" s="17"/>
-      <c r="BM17" s="15"/>
+      <c r="BM17" s="17"/>
+      <c r="BN17" s="15"/>
     </row>
-    <row r="18" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="90" t="s">
         <v>54</v>
@@ -5673,14 +5775,16 @@
         <v>55</v>
       </c>
       <c r="E18" s="86">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F18" s="87">
         <v>44348</v>
       </c>
-      <c r="G18" s="163"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="17"/>
+      <c r="G18" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="146"/>
+      <c r="I18" s="89"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
@@ -5736,18 +5840,31 @@
       <c r="BJ18" s="17"/>
       <c r="BK18" s="17"/>
       <c r="BL18" s="17"/>
-      <c r="BM18" s="15"/>
+      <c r="BM18" s="17"/>
+      <c r="BN18" s="15"/>
     </row>
-    <row r="19" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="17"/>
+      <c r="B19" s="150" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="152">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="153">
+        <v>44351</v>
+      </c>
+      <c r="G19" s="154" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="148" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="89"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
@@ -5803,9 +5920,10 @@
       <c r="BJ19" s="17"/>
       <c r="BK19" s="17"/>
       <c r="BL19" s="17"/>
-      <c r="BM19" s="15"/>
+      <c r="BM19" s="17"/>
+      <c r="BN19" s="15"/>
     </row>
-    <row r="20" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="90" t="s">
         <v>42</v>
@@ -5822,235 +5940,238 @@
       <c r="F20" s="87">
         <v>44344</v>
       </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="17" t="str">
-        <f t="shared" ref="I15:I22" ca="1" si="9">IF(AND($C20="目标",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),2,IF(AND($C20="里程碑",I$7&gt;=$F20,I$7&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88">
+        <v>12</v>
+      </c>
+      <c r="I20" s="89"/>
       <c r="J20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="J20:J22" ca="1" si="11">IF(AND($C20="目标",J$7&gt;=$F20,J$7&lt;=$F20+$H20-1),2,IF(AND($C20="里程碑",J$7&gt;=$F20,J$7&lt;=$F20+$H20-1),1,""))</f>
         <v/>
       </c>
       <c r="K20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="K20:T22" ca="1" si="12">IF(AND($C20="目标",K$7&gt;=$F20,K$7&lt;=$F20+$H20-1),2,IF(AND($C20="里程碑",K$7&gt;=$F20,K$7&lt;=$F20+$H20-1),1,""))</f>
         <v/>
       </c>
       <c r="L20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="U20:AD22" ca="1" si="13">IF(AND($C20="目标",U$7&gt;=$F20,U$7&lt;=$F20+$H20-1),2,IF(AND($C20="里程碑",U$7&gt;=$F20,U$7&lt;=$F20+$H20-1),1,""))</f>
         <v/>
       </c>
       <c r="V20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X20" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="AE20:AN22" ca="1" si="14">IF(AND($C20="目标",AE$7&gt;=$F20,AE$7&lt;=$F20+$H20-1),2,IF(AND($C20="里程碑",AE$7&gt;=$F20,AE$7&lt;=$F20+$H20-1),1,""))</f>
         <v/>
       </c>
       <c r="AF20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN20" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="AO20:AX22" ca="1" si="15">IF(AND($C20="目标",AO$7&gt;=$F20,AO$7&lt;=$F20+$H20-1),2,IF(AND($C20="里程碑",AO$7&gt;=$F20,AO$7&lt;=$F20+$H20-1),1,""))</f>
         <v/>
       </c>
       <c r="AP20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="AY20:BM22" ca="1" si="16">IF(AND($C20="目标",AY$7&gt;=$F20,AY$7&lt;=$F20+$H20-1),2,IF(AND($C20="里程碑",AY$7&gt;=$F20,AY$7&lt;=$F20+$H20-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD20" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE20" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF20" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG20" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH20" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI20" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ20" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK20" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL20" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BM20" s="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="BM20" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="BN20" s="15"/>
     </row>
-    <row r="21" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="90" t="s">
         <v>45</v>
@@ -6062,240 +6183,241 @@
         <v>46</v>
       </c>
       <c r="E21" s="86">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="F21" s="87">
         <v>44351</v>
       </c>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="89"/>
       <c r="J21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X21" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN21" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD21" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE21" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF21" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG21" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH21" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI21" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ21" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK21" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL21" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BM21" s="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="BM21" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="BN21" s="15"/>
     </row>
-    <row r="22" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="90" t="s">
         <v>47</v>
@@ -6312,235 +6434,236 @@
       <c r="F22" s="87">
         <v>44348</v>
       </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="17" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
+      <c r="G22" s="87"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
       <c r="J22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="L22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="M22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="N22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="O22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="P22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="Q22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="R22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="S22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="T22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="U22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X22" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AF22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AG22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AH22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AI22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AJ22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AK22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN22" s="17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AP22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AQ22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AR22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AS22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AT22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AU22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AV22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AW22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AX22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AY22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD22" s="17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE22" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF22" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG22" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH22" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI22" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ22" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK22" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL22" s="17" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="BM22" s="15"/>
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="BM22" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="BN22" s="15"/>
     </row>
-    <row r="23" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="90" t="s">
         <v>49</v>
@@ -6552,23 +6675,23 @@
         <v>50</v>
       </c>
       <c r="E23" s="86">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F23" s="87">
         <v>44351</v>
       </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="17"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="17" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="O23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17" t="str">
+        <f ca="1">IF(AND($C23="目标",O$7&gt;=$F23,O$7&lt;=$F23+$H23-1),2,IF(AND($C23="里程碑",O$7&gt;=$F23,O$7&lt;=$F23+$H23-1),1,""))</f>
+        <v/>
+      </c>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
@@ -6618,226 +6741,228 @@
       <c r="BJ23" s="17"/>
       <c r="BK23" s="17"/>
       <c r="BL23" s="17"/>
-      <c r="BM23" s="15"/>
+      <c r="BM23" s="17"/>
+      <c r="BN23" s="15"/>
     </row>
-    <row r="24" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="84"/>
       <c r="C24" s="85"/>
       <c r="D24" s="85"/>
       <c r="E24" s="86"/>
       <c r="F24" s="87"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="17"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="89"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="17" t="str">
-        <f t="shared" ref="I24:R29" ca="1" si="10">IF(AND($C24="目标",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),2,IF(AND($C24="里程碑",O$7&gt;=$F24,O$7&lt;=$F24+$G24-1),1,""))</f>
-        <v/>
-      </c>
+      <c r="O24" s="17"/>
       <c r="P24" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="P24:Y29" ca="1" si="17">IF(AND($C24="目标",P$7&gt;=$F24,P$7&lt;=$F24+$H24-1),2,IF(AND($C24="里程碑",P$7&gt;=$F24,P$7&lt;=$F24+$H24-1),1,""))</f>
         <v/>
       </c>
       <c r="Q24" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R24" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S24" s="17" t="str">
-        <f t="shared" ref="S24:AB29" ca="1" si="11">IF(AND($C24="目标",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),2,IF(AND($C24="里程碑",S$7&gt;=$F24,S$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T24" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U24" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V24" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W24" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X24" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y24" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z24" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="Z24:AI29" ca="1" si="18">IF(AND($C24="目标",Z$7&gt;=$F24,Z$7&lt;=$F24+$H24-1),2,IF(AND($C24="里程碑",Z$7&gt;=$F24,Z$7&lt;=$F24+$H24-1),1,""))</f>
         <v/>
       </c>
       <c r="AA24" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB24" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC24" s="17" t="str">
-        <f t="shared" ref="AC24:AL29" ca="1" si="12">IF(AND($C24="目标",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),2,IF(AND($C24="里程碑",AC$7&gt;=$F24,AC$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD24" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE24" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF24" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG24" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH24" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI24" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ24" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="AJ24:AS29" ca="1" si="19">IF(AND($C24="目标",AJ$7&gt;=$F24,AJ$7&lt;=$F24+$H24-1),2,IF(AND($C24="里程碑",AJ$7&gt;=$F24,AJ$7&lt;=$F24+$H24-1),1,""))</f>
         <v/>
       </c>
       <c r="AK24" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL24" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM24" s="17" t="str">
-        <f t="shared" ref="AM24:AV29" ca="1" si="13">IF(AND($C24="目标",AM$7&gt;=$F24,AM$7&lt;=$F24+$G24-1),2,IF(AND($C24="里程碑",AM$7&gt;=$F24,AM$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN24" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO24" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP24" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ24" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR24" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS24" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT24" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ref="AT24:BC29" ca="1" si="20">IF(AND($C24="目标",AT$7&gt;=$F24,AT$7&lt;=$F24+$H24-1),2,IF(AND($C24="里程碑",AT$7&gt;=$F24,AT$7&lt;=$F24+$H24-1),1,""))</f>
         <v/>
       </c>
       <c r="AU24" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV24" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW24" s="17" t="str">
-        <f t="shared" ref="AW24:BF29" ca="1" si="14">IF(AND($C24="目标",AW$7&gt;=$F24,AW$7&lt;=$F24+$G24-1),2,IF(AND($C24="里程碑",AW$7&gt;=$F24,AW$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX24" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY24" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ24" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA24" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB24" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC24" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD24" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="BD24:BM29" ca="1" si="21">IF(AND($C24="目标",BD$7&gt;=$F24,BD$7&lt;=$F24+$H24-1),2,IF(AND($C24="里程碑",BD$7&gt;=$F24,BD$7&lt;=$F24+$H24-1),1,""))</f>
         <v/>
       </c>
       <c r="BE24" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF24" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG24" s="17" t="str">
-        <f t="shared" ref="BG24:BL29" ca="1" si="15">IF(AND($C24="目标",BG$7&gt;=$F24,BG$7&lt;=$F24+$G24-1),2,IF(AND($C24="里程碑",BG$7&gt;=$F24,BG$7&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH24" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI24" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ24" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK24" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL24" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BM24" s="15"/>
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BM24" s="17" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BN24" s="15"/>
     </row>
-    <row r="25" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="90" t="s">
         <v>56</v>
@@ -6854,1103 +6979,1108 @@
       <c r="F25" s="87">
         <v>44344</v>
       </c>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="17"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
+      <c r="O25" s="17"/>
       <c r="P25" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q25" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R25" s="17" t="str">
-        <f ca="1">IF(AND($C25="目标",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),2,IF(AND($C25="里程碑",R$7&gt;=$F25,R$7&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S25" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T25" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U25" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V25" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W25" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X25" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y25" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z25" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA25" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB25" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC25" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD25" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE25" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF25" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG25" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH25" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI25" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ25" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK25" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL25" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM25" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN25" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO25" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP25" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ25" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR25" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS25" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT25" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU25" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV25" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW25" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX25" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY25" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ25" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA25" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB25" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC25" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD25" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE25" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF25" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG25" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH25" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI25" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ25" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK25" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL25" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BM25" s="15"/>
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BM25" s="17" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BN25" s="15"/>
     </row>
-    <row r="26" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="90"/>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
       <c r="E26" s="86"/>
       <c r="F26" s="87"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="17"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="89"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
       <c r="L26" s="17"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
-      <c r="O26" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
+      <c r="O26" s="17"/>
       <c r="P26" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q26" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R26" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S26" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T26" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U26" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V26" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W26" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X26" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y26" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z26" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA26" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB26" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC26" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD26" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE26" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF26" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG26" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH26" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI26" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ26" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK26" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL26" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM26" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN26" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO26" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP26" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ26" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR26" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS26" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT26" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU26" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV26" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW26" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX26" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY26" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ26" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA26" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB26" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC26" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD26" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE26" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF26" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG26" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH26" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI26" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ26" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK26" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL26" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BM26" s="15"/>
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BM26" s="17" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BN26" s="15"/>
     </row>
-    <row r="27" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="90"/>
       <c r="C27" s="85"/>
       <c r="D27" s="85"/>
       <c r="E27" s="86"/>
       <c r="F27" s="87"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="17"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="89"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
       <c r="L27" s="17"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
-      <c r="O27" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
+      <c r="O27" s="17"/>
       <c r="P27" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q27" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R27" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S27" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T27" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U27" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V27" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W27" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X27" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y27" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z27" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA27" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB27" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC27" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD27" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE27" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF27" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG27" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH27" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI27" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ27" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK27" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL27" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM27" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN27" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO27" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP27" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ27" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR27" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS27" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT27" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU27" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV27" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW27" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX27" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY27" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ27" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA27" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB27" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC27" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD27" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE27" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF27" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG27" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH27" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI27" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ27" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK27" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL27" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BM27" s="15"/>
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BM27" s="17" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BN27" s="15"/>
     </row>
-    <row r="28" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="90"/>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
       <c r="E28" s="86"/>
       <c r="F28" s="87"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="17"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="89"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
-      <c r="O28" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
+      <c r="O28" s="17"/>
       <c r="P28" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q28" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R28" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S28" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T28" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U28" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V28" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W28" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X28" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y28" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z28" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA28" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB28" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC28" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD28" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE28" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF28" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG28" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH28" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI28" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ28" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK28" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL28" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM28" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN28" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO28" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP28" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ28" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR28" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS28" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT28" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU28" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV28" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW28" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX28" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY28" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ28" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA28" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB28" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC28" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD28" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE28" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF28" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG28" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH28" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI28" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ28" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK28" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL28" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BM28" s="15"/>
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BM28" s="17" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BN28" s="15"/>
     </row>
-    <row r="29" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="90"/>
       <c r="C29" s="85"/>
       <c r="D29" s="85"/>
       <c r="E29" s="86"/>
       <c r="F29" s="87"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v/>
-      </c>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
       <c r="J29" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="J29:O29" ca="1" si="22">IF(AND($C29="目标",J$7&gt;=$F29,J$7&lt;=$F29+$H29-1),2,IF(AND($C29="里程碑",J$7&gt;=$F29,J$7&lt;=$F29+$H29-1),1,""))</f>
         <v/>
       </c>
       <c r="K29" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="L29" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="M29" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="N29" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O29" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="P29" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q29" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R29" s="17" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S29" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T29" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U29" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V29" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W29" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X29" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y29" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z29" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA29" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB29" s="17" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC29" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD29" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE29" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF29" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG29" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH29" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI29" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ29" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK29" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL29" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM29" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN29" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO29" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AP29" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ29" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR29" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS29" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT29" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU29" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV29" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW29" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX29" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY29" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ29" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA29" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB29" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC29" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD29" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE29" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF29" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG29" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH29" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI29" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ29" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK29" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL29" s="17" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="BM29" s="37"/>
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BM29" s="17" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v/>
+      </c>
+      <c r="BN29" s="37"/>
     </row>
-    <row r="30" spans="1:65" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="91" t="s">
         <v>18</v>
@@ -7959,9 +8089,9 @@
       <c r="D30" s="92"/>
       <c r="E30" s="58"/>
       <c r="F30" s="93"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="36"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="89"/>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
@@ -8017,26 +8147,27 @@
       <c r="BJ30" s="36"/>
       <c r="BK30" s="36"/>
       <c r="BL30" s="36"/>
-      <c r="BM30" s="33"/>
+      <c r="BM30" s="36"/>
+      <c r="BN30" s="33"/>
     </row>
-    <row r="31" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="95"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D32" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="T4:W4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E9:E11 E13 E16 E24:E30">
@@ -8053,75 +8184,75 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL30">
-    <cfRule type="expression" dxfId="36" priority="3">
-      <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
+  <conditionalFormatting sqref="J7:BM30">
+    <cfRule type="expression" dxfId="53" priority="3">
+      <formula>AND(TODAY()&gt;=J$7,TODAY()&lt;K$7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="35" priority="6">
-      <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
+  <conditionalFormatting sqref="J6:AN6">
+    <cfRule type="expression" dxfId="52" priority="6">
+      <formula>J$7&lt;=EOMONTH($J$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="34" priority="5">
-      <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
+  <conditionalFormatting sqref="K6:BM6">
+    <cfRule type="expression" dxfId="51" priority="5">
+      <formula>AND(K$7&lt;=EOMONTH($J$7,2),K$7&gt;EOMONTH($J$7,0),K$7&gt;EOMONTH($J$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="33" priority="4">
-      <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
+  <conditionalFormatting sqref="J6:BM6">
+    <cfRule type="expression" dxfId="50" priority="4">
+      <formula>AND(J$7&lt;=EOMONTH($J$7,1),J$7&gt;EOMONTH($J$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:BL11 I14:BL14 I20:BL29">
-    <cfRule type="expression" dxfId="32" priority="9" stopIfTrue="1">
-      <formula>AND($C10="低风险",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
+  <conditionalFormatting sqref="J10:BM11 J14:BM14 J20:BM29 Q15">
+    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
+      <formula>AND($C10="低风险",J$7&gt;=$F10,J$7&lt;=$F10+$H10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="10" stopIfTrue="1">
-      <formula>AND($C10="高风险",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
+    <cfRule type="expression" dxfId="48" priority="10" stopIfTrue="1">
+      <formula>AND($C10="高风险",J$7&gt;=$F10,J$7&lt;=$F10+$H10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="11" stopIfTrue="1">
-      <formula>AND($C10="步入正轨",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
+    <cfRule type="expression" dxfId="47" priority="11" stopIfTrue="1">
+      <formula>AND($C10="步入正轨",J$7&gt;=$F10,J$7&lt;=$F10+$H10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="12" stopIfTrue="1">
-      <formula>AND($C10="中等风险",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
+    <cfRule type="expression" dxfId="46" priority="12" stopIfTrue="1">
+      <formula>AND($C10="中等风险",J$7&gt;=$F10,J$7&lt;=$F10+$H10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="13" stopIfTrue="1">
-      <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
+    <cfRule type="expression" dxfId="45" priority="13" stopIfTrue="1">
+      <formula>AND(LEN($C10)=0,J$7&gt;=$F10,J$7&lt;=$F10+$H10-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:BL12 I15:BL15">
-    <cfRule type="expression" dxfId="27" priority="52" stopIfTrue="1">
-      <formula>AND($C13="低风险",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1)</formula>
+  <conditionalFormatting sqref="J12:BM12 J15:BM15">
+    <cfRule type="expression" dxfId="44" priority="52" stopIfTrue="1">
+      <formula>AND($C13="低风险",J$7&gt;=$F13,J$7&lt;=$F13+$H13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="53" stopIfTrue="1">
-      <formula>AND($C13="高风险",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1)</formula>
+    <cfRule type="expression" dxfId="43" priority="53" stopIfTrue="1">
+      <formula>AND($C13="高风险",J$7&gt;=$F13,J$7&lt;=$F13+$H13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="54" stopIfTrue="1">
-      <formula>AND($C13="步入正轨",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1)</formula>
+    <cfRule type="expression" dxfId="42" priority="54" stopIfTrue="1">
+      <formula>AND($C13="步入正轨",J$7&gt;=$F13,J$7&lt;=$F13+$H13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="55" stopIfTrue="1">
-      <formula>AND($C13="中等风险",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1)</formula>
+    <cfRule type="expression" dxfId="41" priority="55" stopIfTrue="1">
+      <formula>AND($C13="中等风险",J$7&gt;=$F13,J$7&lt;=$F13+$H13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="56" stopIfTrue="1">
-      <formula>AND(LEN($C13)=0,I$7&gt;=$F13,I$7&lt;=$F13+$G13-1)</formula>
+    <cfRule type="expression" dxfId="40" priority="56" stopIfTrue="1">
+      <formula>AND(LEN($C13)=0,J$7&gt;=$F13,J$7&lt;=$F13+$H13-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:BL13 I16:BL19">
-    <cfRule type="expression" dxfId="22" priority="57" stopIfTrue="1">
-      <formula>AND(#REF!="低风险",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
+  <conditionalFormatting sqref="J13:BM13 J16:BM19">
+    <cfRule type="expression" dxfId="39" priority="57" stopIfTrue="1">
+      <formula>AND(#REF!="低风险",J$7&gt;=#REF!,J$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="58" stopIfTrue="1">
-      <formula>AND(#REF!="高风险",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
+    <cfRule type="expression" dxfId="38" priority="58" stopIfTrue="1">
+      <formula>AND(#REF!="高风险",J$7&gt;=#REF!,J$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="59" stopIfTrue="1">
-      <formula>AND(#REF!="步入正轨",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
+    <cfRule type="expression" dxfId="37" priority="59" stopIfTrue="1">
+      <formula>AND(#REF!="步入正轨",J$7&gt;=#REF!,J$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="60" stopIfTrue="1">
-      <formula>AND(#REF!="中等风险",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
+    <cfRule type="expression" dxfId="36" priority="60" stopIfTrue="1">
+      <formula>AND(#REF!="中等风险",J$7&gt;=#REF!,J$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="61" stopIfTrue="1">
-      <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
+    <cfRule type="expression" dxfId="35" priority="61" stopIfTrue="1">
+      <formula>AND(LEN(#REF!)=0,J$7&gt;=#REF!,J$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
@@ -8190,13 +8321,13 @@
               <controlPr defaultSize="0" autoPict="0" altText="滚动浏览甘特项目时间线的滚动条。">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>8</xdr:col>
+                    <xdr:col>9</xdr:col>
                     <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>64</xdr:col>
+                    <xdr:col>65</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>238125</xdr:rowOff>
@@ -8231,44 +8362,6 @@
           <xm:sqref>E9:E11 E13 E16 E24:E30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{A1EFF969-3CBB-4DB2-A4C9-47B01FE32C86}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I30:BL30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>I10:BL29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8479C164-C9A7-47D2-B8F3-4F7339F2812E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -8297,6 +8390,44 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E18:E23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{A1EFF969-3CBB-4DB2-A4C9-47B01FE32C86}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J30:BM30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="44" id="{39412BF5-D1E8-4731-95F6-6B0C252D35F8}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J10:BM29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8331,27 +8462,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="157"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
@@ -8478,40 +8609,40 @@
         <v>30</v>
       </c>
       <c r="H4" s="106"/>
-      <c r="I4" s="153" t="s">
+      <c r="I4" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="154" t="s">
+      <c r="N4" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
       <c r="R4" s="20"/>
-      <c r="S4" s="155" t="s">
+      <c r="S4" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
       <c r="W4" s="20"/>
-      <c r="X4" s="148" t="s">
+      <c r="X4" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="148"/>
-      <c r="Z4" s="148"/>
-      <c r="AA4" s="148"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
       <c r="AB4" s="20"/>
-      <c r="AC4" s="149" t="s">
+      <c r="AC4" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="149"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="149"/>
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="159"/>
+      <c r="AF4" s="159"/>
       <c r="AG4" s="20"/>
       <c r="AH4" s="20"/>
       <c r="AI4" s="20"/>
@@ -8622,7 +8753,7 @@
       </c>
       <c r="C6" s="112" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(里程碑_435[开始])=0,TODAY(),B11(里程碑_435[开始])),TODAY())</f>
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D6" s="113"/>
       <c r="E6" s="20"/>
@@ -8726,227 +8857,227 @@
       <c r="H7" s="110"/>
       <c r="I7" s="141">
         <f ca="1">IFERROR(项目_开始日期+滚动_增量,TODAY())</f>
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="J7" s="142">
         <f ca="1">I7+1</f>
-        <v>44352</v>
+        <v>44356</v>
       </c>
       <c r="K7" s="142">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44353</v>
+        <v>44357</v>
       </c>
       <c r="L7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44354</v>
+        <v>44358</v>
       </c>
       <c r="M7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44355</v>
+        <v>44359</v>
       </c>
       <c r="N7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="O7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="P7" s="142">
         <f ca="1">O7+1</f>
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="Q7" s="142">
         <f ca="1">P7+1</f>
-        <v>44359</v>
+        <v>44363</v>
       </c>
       <c r="R7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="S7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44361</v>
+        <v>44365</v>
       </c>
       <c r="T7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44362</v>
+        <v>44366</v>
       </c>
       <c r="U7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="V7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="W7" s="142">
         <f ca="1">V7+1</f>
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="X7" s="142">
         <f ca="1">W7+1</f>
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="Y7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44367</v>
+        <v>44371</v>
       </c>
       <c r="Z7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44368</v>
+        <v>44372</v>
       </c>
       <c r="AA7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44369</v>
+        <v>44373</v>
       </c>
       <c r="AB7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="AC7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="AD7" s="142">
         <f ca="1">AC7+1</f>
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="AE7" s="142">
         <f ca="1">AD7+1</f>
-        <v>44373</v>
+        <v>44377</v>
       </c>
       <c r="AF7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44374</v>
+        <v>44378</v>
       </c>
       <c r="AG7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44375</v>
+        <v>44379</v>
       </c>
       <c r="AH7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44376</v>
+        <v>44380</v>
       </c>
       <c r="AI7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44377</v>
+        <v>44381</v>
       </c>
       <c r="AJ7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44378</v>
+        <v>44382</v>
       </c>
       <c r="AK7" s="142">
         <f ca="1">AJ7+1</f>
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="AL7" s="142">
         <f ca="1">AK7+1</f>
-        <v>44380</v>
+        <v>44384</v>
       </c>
       <c r="AM7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44381</v>
+        <v>44385</v>
       </c>
       <c r="AN7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44382</v>
+        <v>44386</v>
       </c>
       <c r="AO7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44383</v>
+        <v>44387</v>
       </c>
       <c r="AP7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44384</v>
+        <v>44388</v>
       </c>
       <c r="AQ7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44385</v>
+        <v>44389</v>
       </c>
       <c r="AR7" s="142">
         <f ca="1">AQ7+1</f>
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="AS7" s="142">
         <f ca="1">AR7+1</f>
-        <v>44387</v>
+        <v>44391</v>
       </c>
       <c r="AT7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44388</v>
+        <v>44392</v>
       </c>
       <c r="AU7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44389</v>
+        <v>44393</v>
       </c>
       <c r="AV7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44390</v>
+        <v>44394</v>
       </c>
       <c r="AW7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44391</v>
+        <v>44395</v>
       </c>
       <c r="AX7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44392</v>
+        <v>44396</v>
       </c>
       <c r="AY7" s="142">
         <f ca="1">AX7+1</f>
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="AZ7" s="142">
         <f ca="1">AY7+1</f>
-        <v>44394</v>
+        <v>44398</v>
       </c>
       <c r="BA7" s="142">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44395</v>
+        <v>44399</v>
       </c>
       <c r="BB7" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>44396</v>
+        <v>44400</v>
       </c>
       <c r="BC7" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>44397</v>
+        <v>44401</v>
       </c>
       <c r="BD7" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>44398</v>
+        <v>44402</v>
       </c>
       <c r="BE7" s="143">
         <f t="shared" ca="1" si="1"/>
-        <v>44399</v>
+        <v>44403</v>
       </c>
       <c r="BF7" s="142">
         <f ca="1">BE7+1</f>
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="BG7" s="142">
         <f ca="1">BF7+1</f>
-        <v>44401</v>
+        <v>44405</v>
       </c>
       <c r="BH7" s="142">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44402</v>
+        <v>44406</v>
       </c>
       <c r="BI7" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>44403</v>
+        <v>44407</v>
       </c>
       <c r="BJ7" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>44404</v>
+        <v>44408</v>
       </c>
       <c r="BK7" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>44405</v>
+        <v>44409</v>
       </c>
       <c r="BL7" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>44406</v>
+        <v>44410</v>
       </c>
       <c r="BM7" s="20"/>
     </row>
@@ -9040,227 +9171,227 @@
       <c r="H9" s="124"/>
       <c r="I9" s="125" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"aaa"),1)</f>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="J9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="K9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="L9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="M9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="N9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="O9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="P9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="Q9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="R9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="S9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="T9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="U9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="V9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="W9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="X9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="Y9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="Z9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="AA9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="AB9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="AC9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="AD9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="AE9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="AF9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="AG9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="AH9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="AI9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="AJ9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="AK9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="AL9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="AM9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="AN9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="AO9" s="125" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"aaa"),1)</f>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="AP9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="AQ9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="AR9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="AS9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="AT9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="AU9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="AV9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="AW9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="AX9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="AY9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="AZ9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="BA9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="BB9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="BC9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="BD9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="BE9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="BF9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="BG9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="BH9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="BI9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="BJ9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="BK9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="BL9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="BM9" s="20"/>
     </row>
@@ -9584,7 +9715,7 @@
       </c>
       <c r="F12" s="129">
         <f ca="1">TODAY()</f>
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="G12" s="130">
         <v>3</v>
@@ -9828,7 +9959,7 @@
       <c r="E13" s="128"/>
       <c r="F13" s="129">
         <f ca="1">TODAY()+5</f>
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="G13" s="130">
         <v>1</v>
@@ -10074,7 +10205,7 @@
       </c>
       <c r="F14" s="129">
         <f ca="1">F12-3</f>
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="G14" s="130">
         <v>10</v>
@@ -10318,7 +10449,7 @@
       <c r="E15" s="128"/>
       <c r="F15" s="129">
         <f ca="1">F12+20</f>
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="G15" s="130">
         <v>1</v>
@@ -10564,7 +10695,7 @@
       </c>
       <c r="F16" s="129">
         <f ca="1">F12+6</f>
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="G16" s="130">
         <v>6</v>
@@ -11047,7 +11178,7 @@
       </c>
       <c r="F18" s="129">
         <f ca="1">F12+6</f>
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="G18" s="130">
         <v>13</v>
@@ -11293,7 +11424,7 @@
       </c>
       <c r="F19" s="129">
         <f ca="1">F18+2</f>
-        <v>44359</v>
+        <v>44363</v>
       </c>
       <c r="G19" s="130">
         <v>9</v>
@@ -11539,7 +11670,7 @@
       </c>
       <c r="F20" s="129">
         <f ca="1">F19+5</f>
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="G20" s="130">
         <v>11</v>
@@ -11783,7 +11914,7 @@
       <c r="E21" s="128"/>
       <c r="F21" s="129">
         <f ca="1">F20+2</f>
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="G21" s="130">
         <v>1</v>
@@ -12025,7 +12156,7 @@
       <c r="E22" s="128"/>
       <c r="F22" s="129">
         <f ca="1">F21+1</f>
-        <v>44367</v>
+        <v>44371</v>
       </c>
       <c r="G22" s="130">
         <v>24</v>
@@ -12506,7 +12637,7 @@
       <c r="E24" s="128"/>
       <c r="F24" s="129">
         <f ca="1">F12+15</f>
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="G24" s="130">
         <v>4</v>
@@ -12750,7 +12881,7 @@
       <c r="E25" s="128"/>
       <c r="F25" s="129">
         <f ca="1">F24+3</f>
-        <v>44369</v>
+        <v>44373</v>
       </c>
       <c r="G25" s="130">
         <v>14</v>
@@ -12994,7 +13125,7 @@
       <c r="E26" s="128"/>
       <c r="F26" s="129">
         <f ca="1">F25+15</f>
-        <v>44384</v>
+        <v>44388</v>
       </c>
       <c r="G26" s="130">
         <v>6</v>
@@ -13238,7 +13369,7 @@
       <c r="E27" s="128"/>
       <c r="F27" s="129">
         <f ca="1">F21+22</f>
-        <v>44388</v>
+        <v>44392</v>
       </c>
       <c r="G27" s="130">
         <v>3</v>
@@ -13482,7 +13613,7 @@
       <c r="E28" s="128"/>
       <c r="F28" s="129">
         <f ca="1">F16</f>
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="G28" s="130">
         <v>19</v>
@@ -13961,7 +14092,7 @@
       <c r="E30" s="128"/>
       <c r="F30" s="129">
         <f ca="1">F27+3</f>
-        <v>44391</v>
+        <v>44395</v>
       </c>
       <c r="G30" s="130">
         <v>15</v>
@@ -14203,7 +14334,7 @@
       <c r="E31" s="128"/>
       <c r="F31" s="129">
         <f ca="1">F30+14</f>
-        <v>44405</v>
+        <v>44409</v>
       </c>
       <c r="G31" s="130">
         <v>5</v>
@@ -14447,7 +14578,7 @@
       <c r="E32" s="128"/>
       <c r="F32" s="129">
         <f ca="1">F31+42</f>
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="G32" s="130">
         <v>1</v>
@@ -15492,39 +15623,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
       <formula>AND($C10="低风险",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="8" stopIfTrue="1">
       <formula>AND($C10="高风险",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
       <formula>AND($C10="步入正轨",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="10" stopIfTrue="1">
       <formula>AND($C10="中等风险",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15677,27 +15808,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
       <c r="U2" s="135"/>
       <c r="V2" s="135"/>
       <c r="W2" s="135"/>
@@ -15824,40 +15955,40 @@
         <v>30</v>
       </c>
       <c r="H4" s="58"/>
-      <c r="I4" s="153" t="s">
+      <c r="I4" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="154" t="s">
+      <c r="N4" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="164"/>
+      <c r="Q4" s="164"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="155" t="s">
+      <c r="S4" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
       <c r="W4" s="35"/>
-      <c r="X4" s="148" t="s">
+      <c r="X4" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="148"/>
-      <c r="Z4" s="148"/>
-      <c r="AA4" s="148"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
       <c r="AB4" s="35"/>
-      <c r="AC4" s="149" t="s">
+      <c r="AC4" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="149"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="149"/>
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="159"/>
+      <c r="AF4" s="159"/>
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
@@ -15968,7 +16099,7 @@
       </c>
       <c r="C6" s="64" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(里程碑_43524[开始])=0,TODAY(),B11(里程碑_43524[开始])),TODAY())</f>
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="D6" s="65"/>
       <c r="E6" s="58"/>
@@ -16072,227 +16203,227 @@
       <c r="H7" s="72"/>
       <c r="I7" s="138">
         <f ca="1">IFERROR(项目_开始日期+滚动_增量,TODAY())</f>
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="J7" s="139">
         <f ca="1">I7+1</f>
-        <v>44352</v>
+        <v>44356</v>
       </c>
       <c r="K7" s="139">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44353</v>
+        <v>44357</v>
       </c>
       <c r="L7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44354</v>
+        <v>44358</v>
       </c>
       <c r="M7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44355</v>
+        <v>44359</v>
       </c>
       <c r="N7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="O7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="P7" s="139">
         <f ca="1">O7+1</f>
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="Q7" s="139">
         <f ca="1">P7+1</f>
-        <v>44359</v>
+        <v>44363</v>
       </c>
       <c r="R7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44360</v>
+        <v>44364</v>
       </c>
       <c r="S7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44361</v>
+        <v>44365</v>
       </c>
       <c r="T7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44362</v>
+        <v>44366</v>
       </c>
       <c r="U7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44363</v>
+        <v>44367</v>
       </c>
       <c r="V7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="W7" s="139">
         <f ca="1">V7+1</f>
-        <v>44365</v>
+        <v>44369</v>
       </c>
       <c r="X7" s="139">
         <f ca="1">W7+1</f>
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="Y7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44367</v>
+        <v>44371</v>
       </c>
       <c r="Z7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44368</v>
+        <v>44372</v>
       </c>
       <c r="AA7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44369</v>
+        <v>44373</v>
       </c>
       <c r="AB7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="AC7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="AD7" s="139">
         <f ca="1">AC7+1</f>
-        <v>44372</v>
+        <v>44376</v>
       </c>
       <c r="AE7" s="139">
         <f ca="1">AD7+1</f>
-        <v>44373</v>
+        <v>44377</v>
       </c>
       <c r="AF7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44374</v>
+        <v>44378</v>
       </c>
       <c r="AG7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44375</v>
+        <v>44379</v>
       </c>
       <c r="AH7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44376</v>
+        <v>44380</v>
       </c>
       <c r="AI7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44377</v>
+        <v>44381</v>
       </c>
       <c r="AJ7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44378</v>
+        <v>44382</v>
       </c>
       <c r="AK7" s="139">
         <f ca="1">AJ7+1</f>
-        <v>44379</v>
+        <v>44383</v>
       </c>
       <c r="AL7" s="139">
         <f ca="1">AK7+1</f>
-        <v>44380</v>
+        <v>44384</v>
       </c>
       <c r="AM7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44381</v>
+        <v>44385</v>
       </c>
       <c r="AN7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44382</v>
+        <v>44386</v>
       </c>
       <c r="AO7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44383</v>
+        <v>44387</v>
       </c>
       <c r="AP7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44384</v>
+        <v>44388</v>
       </c>
       <c r="AQ7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44385</v>
+        <v>44389</v>
       </c>
       <c r="AR7" s="139">
         <f ca="1">AQ7+1</f>
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="AS7" s="139">
         <f ca="1">AR7+1</f>
-        <v>44387</v>
+        <v>44391</v>
       </c>
       <c r="AT7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44388</v>
+        <v>44392</v>
       </c>
       <c r="AU7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44389</v>
+        <v>44393</v>
       </c>
       <c r="AV7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44390</v>
+        <v>44394</v>
       </c>
       <c r="AW7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44391</v>
+        <v>44395</v>
       </c>
       <c r="AX7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44392</v>
+        <v>44396</v>
       </c>
       <c r="AY7" s="139">
         <f ca="1">AX7+1</f>
-        <v>44393</v>
+        <v>44397</v>
       </c>
       <c r="AZ7" s="139">
         <f ca="1">AY7+1</f>
-        <v>44394</v>
+        <v>44398</v>
       </c>
       <c r="BA7" s="139">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44395</v>
+        <v>44399</v>
       </c>
       <c r="BB7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44396</v>
+        <v>44400</v>
       </c>
       <c r="BC7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44397</v>
+        <v>44401</v>
       </c>
       <c r="BD7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44398</v>
+        <v>44402</v>
       </c>
       <c r="BE7" s="140">
         <f t="shared" ca="1" si="1"/>
-        <v>44399</v>
+        <v>44403</v>
       </c>
       <c r="BF7" s="139">
         <f ca="1">BE7+1</f>
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="BG7" s="139">
         <f ca="1">BF7+1</f>
-        <v>44401</v>
+        <v>44405</v>
       </c>
       <c r="BH7" s="139">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44402</v>
+        <v>44406</v>
       </c>
       <c r="BI7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44403</v>
+        <v>44407</v>
       </c>
       <c r="BJ7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44404</v>
+        <v>44408</v>
       </c>
       <c r="BK7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44405</v>
+        <v>44409</v>
       </c>
       <c r="BL7" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>44406</v>
+        <v>44410</v>
       </c>
       <c r="BM7" s="35"/>
     </row>
@@ -16386,227 +16517,227 @@
       <c r="H9" s="81"/>
       <c r="I9" s="82" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"aaa"),1)</f>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="J9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="K9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="L9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="M9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="N9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="O9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="P9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="Q9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="R9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="S9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="T9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="U9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="V9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="W9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="X9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="Y9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="Z9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="AA9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="AB9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="AC9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="AD9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="AE9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="AF9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="AG9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="AH9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="AI9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="AJ9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="AK9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="AL9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="AM9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="AN9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="AO9" s="82" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"aaa"),1)</f>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="AP9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="AQ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="AR9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="AS9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="AT9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="AU9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="AV9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="AW9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="AX9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="AY9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="AZ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="BA9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="BB9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="BC9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="BD9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="BE9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="BF9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>二</v>
       </c>
       <c r="BG9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>三</v>
       </c>
       <c r="BH9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>四</v>
       </c>
       <c r="BI9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>五</v>
       </c>
       <c r="BJ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>六</v>
       </c>
       <c r="BK9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>日</v>
       </c>
       <c r="BL9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>一</v>
       </c>
       <c r="BM9" s="35"/>
     </row>
@@ -16930,7 +17061,7 @@
       </c>
       <c r="F12" s="87">
         <f ca="1">TODAY()</f>
-        <v>44351</v>
+        <v>44355</v>
       </c>
       <c r="G12" s="88">
         <v>3</v>
@@ -17174,7 +17305,7 @@
       <c r="E13" s="86"/>
       <c r="F13" s="87">
         <f ca="1">TODAY()+5</f>
-        <v>44356</v>
+        <v>44360</v>
       </c>
       <c r="G13" s="88">
         <v>1</v>
@@ -17420,7 +17551,7 @@
       </c>
       <c r="F14" s="87">
         <f ca="1">F12-3</f>
-        <v>44348</v>
+        <v>44352</v>
       </c>
       <c r="G14" s="88">
         <v>10</v>
@@ -17664,7 +17795,7 @@
       <c r="E15" s="86"/>
       <c r="F15" s="87">
         <f ca="1">F12+20</f>
-        <v>44371</v>
+        <v>44375</v>
       </c>
       <c r="G15" s="88">
         <v>1</v>
@@ -17910,7 +18041,7 @@
       </c>
       <c r="F16" s="87">
         <f ca="1">F12+6</f>
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="G16" s="88">
         <v>6</v>
@@ -18393,7 +18524,7 @@
       </c>
       <c r="F18" s="87">
         <f ca="1">F12+6</f>
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="G18" s="88">
         <v>13</v>
@@ -18639,7 +18770,7 @@
       </c>
       <c r="F19" s="87">
         <f ca="1">F18+2</f>
-        <v>44359</v>
+        <v>44363</v>
       </c>
       <c r="G19" s="88">
         <v>9</v>
@@ -18885,7 +19016,7 @@
       </c>
       <c r="F20" s="87">
         <f ca="1">F19+5</f>
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="G20" s="88">
         <v>11</v>
@@ -19129,7 +19260,7 @@
       <c r="E21" s="86"/>
       <c r="F21" s="87">
         <f ca="1">F20+2</f>
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="G21" s="88">
         <v>1</v>
@@ -19371,7 +19502,7 @@
       <c r="E22" s="86"/>
       <c r="F22" s="87">
         <f ca="1">F21+1</f>
-        <v>44367</v>
+        <v>44371</v>
       </c>
       <c r="G22" s="88">
         <v>24</v>
@@ -19852,7 +19983,7 @@
       <c r="E24" s="86"/>
       <c r="F24" s="87">
         <f ca="1">F12+15</f>
-        <v>44366</v>
+        <v>44370</v>
       </c>
       <c r="G24" s="88">
         <v>4</v>
@@ -20096,7 +20227,7 @@
       <c r="E25" s="86"/>
       <c r="F25" s="87">
         <f ca="1">F24+3</f>
-        <v>44369</v>
+        <v>44373</v>
       </c>
       <c r="G25" s="88">
         <v>14</v>
@@ -20340,7 +20471,7 @@
       <c r="E26" s="86"/>
       <c r="F26" s="87">
         <f ca="1">F25+15</f>
-        <v>44384</v>
+        <v>44388</v>
       </c>
       <c r="G26" s="88">
         <v>6</v>
@@ -20584,7 +20715,7 @@
       <c r="E27" s="86"/>
       <c r="F27" s="87">
         <f ca="1">F21+22</f>
-        <v>44388</v>
+        <v>44392</v>
       </c>
       <c r="G27" s="88">
         <v>3</v>
@@ -20828,7 +20959,7 @@
       <c r="E28" s="86"/>
       <c r="F28" s="87">
         <f ca="1">F16</f>
-        <v>44357</v>
+        <v>44361</v>
       </c>
       <c r="G28" s="88">
         <v>19</v>
@@ -21307,7 +21438,7 @@
       <c r="E30" s="86"/>
       <c r="F30" s="87">
         <f ca="1">F27+3</f>
-        <v>44391</v>
+        <v>44395</v>
       </c>
       <c r="G30" s="88">
         <v>15</v>
@@ -21549,7 +21680,7 @@
       <c r="E31" s="86"/>
       <c r="F31" s="87">
         <f ca="1">F30+14</f>
-        <v>44405</v>
+        <v>44409</v>
       </c>
       <c r="G31" s="88">
         <v>5</v>
@@ -21793,7 +21924,7 @@
       <c r="E32" s="86"/>
       <c r="F32" s="87">
         <f ca="1">F31+42</f>
-        <v>44447</v>
+        <v>44451</v>
       </c>
       <c r="G32" s="88">
         <v>1</v>
@@ -22838,39 +22969,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>AND($C10="低风险",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>AND($C10="高风险",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>AND($C10="步入正轨",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
       <formula>AND($C10="中等风险",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/shardSystem 甘特图.xlsx
+++ b/shardSystem 甘特图.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
   <si>
     <t>关于此甘特图</t>
   </si>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>建洲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>第一次测试运行</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -259,19 +255,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>网络数据测量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>消息队列构建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>建洲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>deprecated</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -292,6 +276,30 @@
   </si>
   <si>
     <t>高并发的时候再来</t>
+  </si>
+  <si>
+    <t>深扬、建洲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建洲、深扬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建洲、深扬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次测试运行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络数据测量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新捡起</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -621,7 +629,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,13 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC0C0C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,7 +1266,7 @@
     <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1661,21 +1663,6 @@
     <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="38" fillId="45" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="46" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1729,6 +1716,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="45" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2787,11 +2792,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFC0C0C0"/>
       <color rgb="FF000000"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
       <color rgb="FF969696"/>
-      <color rgb="FFC0C0C0"/>
       <color rgb="FF427FC2"/>
       <color rgb="FF44678E"/>
       <color rgb="FF4A6F9C"/>
@@ -2856,7 +2861,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3421,11 +3426,11 @@
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="39"/>
       <c r="B2" s="41"/>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
       <c r="F2" s="41"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -3453,11 +3458,11 @@
     <row r="4" spans="1:13" s="6" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="39"/>
       <c r="B4" s="42"/>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
       <c r="F4" s="42"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
@@ -3470,11 +3475,11 @@
     <row r="5" spans="1:13" s="6" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="39"/>
       <c r="B5" s="42"/>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
       <c r="F5" s="42"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
@@ -3714,8 +3719,8 @@
   </sheetPr>
   <dimension ref="A1:BQ32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3737,28 +3742,28 @@
     <row r="1" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:69" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
       <c r="X2" s="49"/>
@@ -3887,40 +3892,40 @@
         <v>30</v>
       </c>
       <c r="I4" s="58"/>
-      <c r="J4" s="163" t="s">
+      <c r="J4" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
       <c r="N4" s="35"/>
-      <c r="O4" s="164" t="s">
+      <c r="O4" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="164"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="165" t="s">
+      <c r="T4" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
       <c r="X4" s="35"/>
-      <c r="Y4" s="158" t="s">
+      <c r="Y4" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
+      <c r="Z4" s="153"/>
+      <c r="AA4" s="153"/>
+      <c r="AB4" s="153"/>
       <c r="AC4" s="35"/>
-      <c r="AD4" s="159" t="s">
+      <c r="AD4" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="159"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
       <c r="AJ4" s="35"/>
@@ -4032,7 +4037,7 @@
       </c>
       <c r="C6" s="64">
         <f ca="1">IFERROR(IF(MIN(里程碑_4352[开始])=0,TODAY(),B11(里程碑_4352[开始])),TODAY())</f>
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="D6" s="65"/>
       <c r="E6" s="58"/>
@@ -4072,7 +4077,7 @@
       <c r="AD6" s="67"/>
       <c r="AE6" s="67" t="str">
         <f ca="1">IF(OR(TEXT(AE7,"m月")=X6,TEXT(AE7,"m月")=Q6,TEXT(AE7,"m月")=J6),"",TEXT(AE7,"m月"))</f>
-        <v/>
+        <v>7月</v>
       </c>
       <c r="AF6" s="67"/>
       <c r="AG6" s="67"/>
@@ -4082,7 +4087,7 @@
       <c r="AK6" s="67"/>
       <c r="AL6" s="67" t="str">
         <f ca="1">IF(OR(TEXT(AL7,"m月")=AE6,TEXT(AL7,"m月")=X6,TEXT(AL7,"m月")=Q6,TEXT(AL7,"m月")=J6),"",TEXT(AL7,"m月"))</f>
-        <v>7月</v>
+        <v/>
       </c>
       <c r="AM6" s="67"/>
       <c r="AN6" s="67"/>
@@ -4138,227 +4143,227 @@
       <c r="I7" s="72"/>
       <c r="J7" s="138">
         <f ca="1">IFERROR(项目_开始日期+滚动_增量,TODAY())</f>
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="K7" s="139">
         <f ca="1">J7+1</f>
-        <v>44356</v>
+        <v>44358</v>
       </c>
       <c r="L7" s="139">
         <f t="shared" ref="L7:AY7" ca="1" si="0">K7+1</f>
-        <v>44357</v>
+        <v>44359</v>
       </c>
       <c r="M7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44358</v>
+        <v>44360</v>
       </c>
       <c r="N7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44359</v>
+        <v>44361</v>
       </c>
       <c r="O7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="P7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="Q7" s="139">
         <f ca="1">P7+1</f>
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="R7" s="139">
         <f ca="1">Q7+1</f>
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="S7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="T7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44365</v>
+        <v>44367</v>
       </c>
       <c r="U7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44366</v>
+        <v>44368</v>
       </c>
       <c r="V7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44367</v>
+        <v>44369</v>
       </c>
       <c r="W7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="X7" s="139">
         <f ca="1">W7+1</f>
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="Y7" s="139">
         <f ca="1">X7+1</f>
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="Z7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44371</v>
+        <v>44373</v>
       </c>
       <c r="AA7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44372</v>
+        <v>44374</v>
       </c>
       <c r="AB7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="AC7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="AD7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44375</v>
+        <v>44377</v>
       </c>
       <c r="AE7" s="139">
         <f ca="1">AD7+1</f>
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="AF7" s="139">
         <f ca="1">AE7+1</f>
-        <v>44377</v>
+        <v>44379</v>
       </c>
       <c r="AG7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44378</v>
+        <v>44380</v>
       </c>
       <c r="AH7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44379</v>
+        <v>44381</v>
       </c>
       <c r="AI7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44380</v>
+        <v>44382</v>
       </c>
       <c r="AJ7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44381</v>
+        <v>44383</v>
       </c>
       <c r="AK7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44382</v>
+        <v>44384</v>
       </c>
       <c r="AL7" s="139">
         <f ca="1">AK7+1</f>
-        <v>44383</v>
+        <v>44385</v>
       </c>
       <c r="AM7" s="139">
         <f ca="1">AL7+1</f>
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="AN7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44385</v>
+        <v>44387</v>
       </c>
       <c r="AO7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44386</v>
+        <v>44388</v>
       </c>
       <c r="AP7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44387</v>
+        <v>44389</v>
       </c>
       <c r="AQ7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44388</v>
+        <v>44390</v>
       </c>
       <c r="AR7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="AS7" s="139">
         <f ca="1">AR7+1</f>
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="AT7" s="139">
         <f ca="1">AS7+1</f>
-        <v>44391</v>
+        <v>44393</v>
       </c>
       <c r="AU7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44392</v>
+        <v>44394</v>
       </c>
       <c r="AV7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44393</v>
+        <v>44395</v>
       </c>
       <c r="AW7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44394</v>
+        <v>44396</v>
       </c>
       <c r="AX7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44395</v>
+        <v>44397</v>
       </c>
       <c r="AY7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44396</v>
+        <v>44398</v>
       </c>
       <c r="AZ7" s="139">
         <f ca="1">AY7+1</f>
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="BA7" s="139">
         <f ca="1">AZ7+1</f>
-        <v>44398</v>
+        <v>44400</v>
       </c>
       <c r="BB7" s="139">
         <f t="shared" ref="BB7:BF7" ca="1" si="1">BA7+1</f>
-        <v>44399</v>
+        <v>44401</v>
       </c>
       <c r="BC7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44400</v>
+        <v>44402</v>
       </c>
       <c r="BD7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44401</v>
+        <v>44403</v>
       </c>
       <c r="BE7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44402</v>
+        <v>44404</v>
       </c>
       <c r="BF7" s="140">
         <f t="shared" ca="1" si="1"/>
-        <v>44403</v>
+        <v>44405</v>
       </c>
       <c r="BG7" s="139">
         <f ca="1">BF7+1</f>
-        <v>44404</v>
+        <v>44406</v>
       </c>
       <c r="BH7" s="139">
         <f ca="1">BG7+1</f>
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="BI7" s="139">
         <f t="shared" ref="BI7:BM7" ca="1" si="2">BH7+1</f>
-        <v>44406</v>
+        <v>44408</v>
       </c>
       <c r="BJ7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44407</v>
+        <v>44409</v>
       </c>
       <c r="BK7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="BL7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44409</v>
+        <v>44411</v>
       </c>
       <c r="BM7" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>44410</v>
+        <v>44412</v>
       </c>
       <c r="BN7" s="35"/>
     </row>
@@ -4448,235 +4453,235 @@
         <v>29</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I9" s="81"/>
       <c r="J9" s="82" t="str">
         <f t="shared" ref="J9:AO9" ca="1" si="3">LEFT(TEXT(J7,"aaa"),1)</f>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="K9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="L9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="M9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="N9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="O9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="P9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="Q9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="R9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="S9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="T9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="U9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="V9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="W9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="X9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="Y9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="Z9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="AA9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AB9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AC9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AD9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AE9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="AF9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="AG9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="AH9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AI9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AJ9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AK9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AL9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="AM9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="AN9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="AO9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AP9" s="82" t="str">
         <f t="shared" ref="AP9:BM9" ca="1" si="4">LEFT(TEXT(AP7,"aaa"),1)</f>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AQ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AR9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AS9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="AT9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="AU9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="AV9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AW9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AX9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AY9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AZ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="BA9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="BB9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="BC9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="BD9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="BE9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="BF9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="BG9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="BH9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="BI9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="BJ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="BK9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="BL9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="BM9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="BN9" s="35"/>
     </row>
@@ -5227,10 +5232,10 @@
     <row r="13" spans="1:69" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" s="85" t="s">
         <v>39</v>
@@ -5608,10 +5613,10 @@
     <row r="16" spans="1:69" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="85" t="s">
         <v>41</v>
@@ -5622,8 +5627,8 @@
       <c r="F16" s="87">
         <v>44350</v>
       </c>
-      <c r="G16" s="155" t="s">
-        <v>62</v>
+      <c r="G16" s="150" t="s">
+        <v>58</v>
       </c>
       <c r="H16" s="88"/>
       <c r="I16" s="89"/>
@@ -5688,13 +5693,13 @@
     <row r="17" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="90" t="s">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="86">
         <v>0.5</v>
@@ -5766,13 +5771,13 @@
     <row r="18" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="85" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="90" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>55</v>
       </c>
       <c r="E18" s="86">
         <v>0.8</v>
@@ -5781,7 +5786,7 @@
         <v>44348</v>
       </c>
       <c r="G18" s="87" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H18" s="146"/>
       <c r="I18" s="89"/>
@@ -5845,24 +5850,26 @@
     </row>
     <row r="19" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="150" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="150"/>
-      <c r="D19" s="151" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="152">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="153">
+      <c r="B19" s="168" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="169" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="170">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="171">
         <v>44351</v>
       </c>
-      <c r="G19" s="154" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="148" t="s">
-        <v>64</v>
+      <c r="G19" s="172" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="173" t="s">
+        <v>60</v>
       </c>
       <c r="I19" s="89"/>
       <c r="J19" s="17"/>
@@ -6426,7 +6433,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="85" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E22" s="86">
         <v>0.2</v>
@@ -6666,13 +6673,13 @@
     <row r="23" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="145" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="145" t="s">
-        <v>50</v>
       </c>
       <c r="E23" s="86">
         <v>0.75</v>
@@ -6746,11 +6753,21 @@
     </row>
     <row r="24" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
+      <c r="B24" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="86">
+        <v>0</v>
+      </c>
+      <c r="F24" s="87">
+        <v>44357</v>
+      </c>
       <c r="G24" s="87"/>
       <c r="H24" s="88"/>
       <c r="I24" s="89"/>
@@ -6965,7 +6982,7 @@
     <row r="25" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="90" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C25" s="85" t="s">
         <v>23</v>
@@ -8462,27 +8479,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
@@ -8609,40 +8626,40 @@
         <v>30</v>
       </c>
       <c r="H4" s="106"/>
-      <c r="I4" s="163" t="s">
+      <c r="I4" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="164" t="s">
+      <c r="N4" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="164"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
       <c r="R4" s="20"/>
-      <c r="S4" s="165" t="s">
+      <c r="S4" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
       <c r="W4" s="20"/>
-      <c r="X4" s="158" t="s">
+      <c r="X4" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
+      <c r="Y4" s="153"/>
+      <c r="Z4" s="153"/>
+      <c r="AA4" s="153"/>
       <c r="AB4" s="20"/>
-      <c r="AC4" s="159" t="s">
+      <c r="AC4" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
+      <c r="AD4" s="154"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
       <c r="AG4" s="20"/>
       <c r="AH4" s="20"/>
       <c r="AI4" s="20"/>
@@ -8753,7 +8770,7 @@
       </c>
       <c r="C6" s="112" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(里程碑_435[开始])=0,TODAY(),B11(里程碑_435[开始])),TODAY())</f>
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="D6" s="113"/>
       <c r="E6" s="20"/>
@@ -8792,7 +8809,7 @@
       <c r="AC6" s="114"/>
       <c r="AD6" s="114" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"m月")=W6,TEXT(AD7,"m月")=P6,TEXT(AD7,"m月")=I6),"",TEXT(AD7,"m月"))</f>
-        <v/>
+        <v>7月</v>
       </c>
       <c r="AE6" s="114"/>
       <c r="AF6" s="114"/>
@@ -8802,7 +8819,7 @@
       <c r="AJ6" s="114"/>
       <c r="AK6" s="114" t="str">
         <f ca="1">IF(OR(TEXT(AK7,"m月")=AD6,TEXT(AK7,"m月")=W6,TEXT(AK7,"m月")=P6,TEXT(AK7,"m月")=I6),"",TEXT(AK7,"m月"))</f>
-        <v>7月</v>
+        <v/>
       </c>
       <c r="AL6" s="114"/>
       <c r="AM6" s="114"/>
@@ -8857,227 +8874,227 @@
       <c r="H7" s="110"/>
       <c r="I7" s="141">
         <f ca="1">IFERROR(项目_开始日期+滚动_增量,TODAY())</f>
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="J7" s="142">
         <f ca="1">I7+1</f>
-        <v>44356</v>
+        <v>44358</v>
       </c>
       <c r="K7" s="142">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44357</v>
+        <v>44359</v>
       </c>
       <c r="L7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44358</v>
+        <v>44360</v>
       </c>
       <c r="M7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44359</v>
+        <v>44361</v>
       </c>
       <c r="N7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="O7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="P7" s="142">
         <f ca="1">O7+1</f>
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="Q7" s="142">
         <f ca="1">P7+1</f>
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="R7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="S7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44365</v>
+        <v>44367</v>
       </c>
       <c r="T7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44366</v>
+        <v>44368</v>
       </c>
       <c r="U7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44367</v>
+        <v>44369</v>
       </c>
       <c r="V7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="W7" s="142">
         <f ca="1">V7+1</f>
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="X7" s="142">
         <f ca="1">W7+1</f>
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="Y7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44371</v>
+        <v>44373</v>
       </c>
       <c r="Z7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44372</v>
+        <v>44374</v>
       </c>
       <c r="AA7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="AB7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="AC7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44375</v>
+        <v>44377</v>
       </c>
       <c r="AD7" s="142">
         <f ca="1">AC7+1</f>
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="AE7" s="142">
         <f ca="1">AD7+1</f>
-        <v>44377</v>
+        <v>44379</v>
       </c>
       <c r="AF7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44378</v>
+        <v>44380</v>
       </c>
       <c r="AG7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44379</v>
+        <v>44381</v>
       </c>
       <c r="AH7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44380</v>
+        <v>44382</v>
       </c>
       <c r="AI7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44381</v>
+        <v>44383</v>
       </c>
       <c r="AJ7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44382</v>
+        <v>44384</v>
       </c>
       <c r="AK7" s="142">
         <f ca="1">AJ7+1</f>
-        <v>44383</v>
+        <v>44385</v>
       </c>
       <c r="AL7" s="142">
         <f ca="1">AK7+1</f>
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="AM7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44385</v>
+        <v>44387</v>
       </c>
       <c r="AN7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44386</v>
+        <v>44388</v>
       </c>
       <c r="AO7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44387</v>
+        <v>44389</v>
       </c>
       <c r="AP7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44388</v>
+        <v>44390</v>
       </c>
       <c r="AQ7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="AR7" s="142">
         <f ca="1">AQ7+1</f>
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="AS7" s="142">
         <f ca="1">AR7+1</f>
-        <v>44391</v>
+        <v>44393</v>
       </c>
       <c r="AT7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44392</v>
+        <v>44394</v>
       </c>
       <c r="AU7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44393</v>
+        <v>44395</v>
       </c>
       <c r="AV7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44394</v>
+        <v>44396</v>
       </c>
       <c r="AW7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44395</v>
+        <v>44397</v>
       </c>
       <c r="AX7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44396</v>
+        <v>44398</v>
       </c>
       <c r="AY7" s="142">
         <f ca="1">AX7+1</f>
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="AZ7" s="142">
         <f ca="1">AY7+1</f>
-        <v>44398</v>
+        <v>44400</v>
       </c>
       <c r="BA7" s="142">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44399</v>
+        <v>44401</v>
       </c>
       <c r="BB7" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>44400</v>
+        <v>44402</v>
       </c>
       <c r="BC7" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>44401</v>
+        <v>44403</v>
       </c>
       <c r="BD7" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>44402</v>
+        <v>44404</v>
       </c>
       <c r="BE7" s="143">
         <f t="shared" ca="1" si="1"/>
-        <v>44403</v>
+        <v>44405</v>
       </c>
       <c r="BF7" s="142">
         <f ca="1">BE7+1</f>
-        <v>44404</v>
+        <v>44406</v>
       </c>
       <c r="BG7" s="142">
         <f ca="1">BF7+1</f>
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="BH7" s="142">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44406</v>
+        <v>44408</v>
       </c>
       <c r="BI7" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>44407</v>
+        <v>44409</v>
       </c>
       <c r="BJ7" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="BK7" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>44409</v>
+        <v>44411</v>
       </c>
       <c r="BL7" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>44410</v>
+        <v>44412</v>
       </c>
       <c r="BM7" s="20"/>
     </row>
@@ -9171,227 +9188,227 @@
       <c r="H9" s="124"/>
       <c r="I9" s="125" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"aaa"),1)</f>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="J9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="K9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="L9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="M9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="N9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="O9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="P9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="Q9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="R9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="S9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="T9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="U9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="V9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="W9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="X9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="Y9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="Z9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AA9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AB9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AC9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AD9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="AE9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="AF9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="AG9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AH9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AI9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AJ9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AK9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="AL9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="AM9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="AN9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AO9" s="125" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"aaa"),1)</f>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AP9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AQ9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AR9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="AS9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="AT9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="AU9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AV9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AW9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AX9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AY9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="AZ9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="BA9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="BB9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="BC9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="BD9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="BE9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="BF9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="BG9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="BH9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="BI9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="BJ9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="BK9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="BL9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="BM9" s="20"/>
     </row>
@@ -9715,7 +9732,7 @@
       </c>
       <c r="F12" s="129">
         <f ca="1">TODAY()</f>
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="G12" s="130">
         <v>3</v>
@@ -9959,7 +9976,7 @@
       <c r="E13" s="128"/>
       <c r="F13" s="129">
         <f ca="1">TODAY()+5</f>
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="G13" s="130">
         <v>1</v>
@@ -10205,7 +10222,7 @@
       </c>
       <c r="F14" s="129">
         <f ca="1">F12-3</f>
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="G14" s="130">
         <v>10</v>
@@ -10449,7 +10466,7 @@
       <c r="E15" s="128"/>
       <c r="F15" s="129">
         <f ca="1">F12+20</f>
-        <v>44375</v>
+        <v>44377</v>
       </c>
       <c r="G15" s="130">
         <v>1</v>
@@ -10695,7 +10712,7 @@
       </c>
       <c r="F16" s="129">
         <f ca="1">F12+6</f>
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="G16" s="130">
         <v>6</v>
@@ -11178,7 +11195,7 @@
       </c>
       <c r="F18" s="129">
         <f ca="1">F12+6</f>
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="G18" s="130">
         <v>13</v>
@@ -11424,7 +11441,7 @@
       </c>
       <c r="F19" s="129">
         <f ca="1">F18+2</f>
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="G19" s="130">
         <v>9</v>
@@ -11670,7 +11687,7 @@
       </c>
       <c r="F20" s="129">
         <f ca="1">F19+5</f>
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="G20" s="130">
         <v>11</v>
@@ -11914,7 +11931,7 @@
       <c r="E21" s="128"/>
       <c r="F21" s="129">
         <f ca="1">F20+2</f>
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="G21" s="130">
         <v>1</v>
@@ -12156,7 +12173,7 @@
       <c r="E22" s="128"/>
       <c r="F22" s="129">
         <f ca="1">F21+1</f>
-        <v>44371</v>
+        <v>44373</v>
       </c>
       <c r="G22" s="130">
         <v>24</v>
@@ -12637,7 +12654,7 @@
       <c r="E24" s="128"/>
       <c r="F24" s="129">
         <f ca="1">F12+15</f>
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="G24" s="130">
         <v>4</v>
@@ -12881,7 +12898,7 @@
       <c r="E25" s="128"/>
       <c r="F25" s="129">
         <f ca="1">F24+3</f>
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="G25" s="130">
         <v>14</v>
@@ -13125,7 +13142,7 @@
       <c r="E26" s="128"/>
       <c r="F26" s="129">
         <f ca="1">F25+15</f>
-        <v>44388</v>
+        <v>44390</v>
       </c>
       <c r="G26" s="130">
         <v>6</v>
@@ -13369,7 +13386,7 @@
       <c r="E27" s="128"/>
       <c r="F27" s="129">
         <f ca="1">F21+22</f>
-        <v>44392</v>
+        <v>44394</v>
       </c>
       <c r="G27" s="130">
         <v>3</v>
@@ -13613,7 +13630,7 @@
       <c r="E28" s="128"/>
       <c r="F28" s="129">
         <f ca="1">F16</f>
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="G28" s="130">
         <v>19</v>
@@ -14092,7 +14109,7 @@
       <c r="E30" s="128"/>
       <c r="F30" s="129">
         <f ca="1">F27+3</f>
-        <v>44395</v>
+        <v>44397</v>
       </c>
       <c r="G30" s="130">
         <v>15</v>
@@ -14334,7 +14351,7 @@
       <c r="E31" s="128"/>
       <c r="F31" s="129">
         <f ca="1">F30+14</f>
-        <v>44409</v>
+        <v>44411</v>
       </c>
       <c r="G31" s="130">
         <v>5</v>
@@ -14578,7 +14595,7 @@
       <c r="E32" s="128"/>
       <c r="F32" s="129">
         <f ca="1">F31+42</f>
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="G32" s="130">
         <v>1</v>
@@ -15808,27 +15825,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
       <c r="U2" s="135"/>
       <c r="V2" s="135"/>
       <c r="W2" s="135"/>
@@ -15955,40 +15972,40 @@
         <v>30</v>
       </c>
       <c r="H4" s="58"/>
-      <c r="I4" s="163" t="s">
+      <c r="I4" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="164" t="s">
+      <c r="N4" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="164"/>
-      <c r="P4" s="164"/>
-      <c r="Q4" s="164"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="159"/>
+      <c r="Q4" s="159"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="165" t="s">
+      <c r="S4" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
       <c r="W4" s="35"/>
-      <c r="X4" s="158" t="s">
+      <c r="X4" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
+      <c r="Y4" s="153"/>
+      <c r="Z4" s="153"/>
+      <c r="AA4" s="153"/>
       <c r="AB4" s="35"/>
-      <c r="AC4" s="159" t="s">
+      <c r="AC4" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
+      <c r="AD4" s="154"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
@@ -16099,7 +16116,7 @@
       </c>
       <c r="C6" s="64" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(里程碑_43524[开始])=0,TODAY(),B11(里程碑_43524[开始])),TODAY())</f>
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="D6" s="65"/>
       <c r="E6" s="58"/>
@@ -16138,7 +16155,7 @@
       <c r="AC6" s="67"/>
       <c r="AD6" s="67" t="str">
         <f ca="1">IF(OR(TEXT(AD7,"m月")=W6,TEXT(AD7,"m月")=P6,TEXT(AD7,"m月")=I6),"",TEXT(AD7,"m月"))</f>
-        <v/>
+        <v>7月</v>
       </c>
       <c r="AE6" s="67"/>
       <c r="AF6" s="67"/>
@@ -16148,7 +16165,7 @@
       <c r="AJ6" s="67"/>
       <c r="AK6" s="67" t="str">
         <f ca="1">IF(OR(TEXT(AK7,"m月")=AD6,TEXT(AK7,"m月")=W6,TEXT(AK7,"m月")=P6,TEXT(AK7,"m月")=I6),"",TEXT(AK7,"m月"))</f>
-        <v>7月</v>
+        <v/>
       </c>
       <c r="AL6" s="67"/>
       <c r="AM6" s="67"/>
@@ -16203,227 +16220,227 @@
       <c r="H7" s="72"/>
       <c r="I7" s="138">
         <f ca="1">IFERROR(项目_开始日期+滚动_增量,TODAY())</f>
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="J7" s="139">
         <f ca="1">I7+1</f>
-        <v>44356</v>
+        <v>44358</v>
       </c>
       <c r="K7" s="139">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44357</v>
+        <v>44359</v>
       </c>
       <c r="L7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44358</v>
+        <v>44360</v>
       </c>
       <c r="M7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44359</v>
+        <v>44361</v>
       </c>
       <c r="N7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="O7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="P7" s="139">
         <f ca="1">O7+1</f>
-        <v>44362</v>
+        <v>44364</v>
       </c>
       <c r="Q7" s="139">
         <f ca="1">P7+1</f>
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="R7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="S7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44365</v>
+        <v>44367</v>
       </c>
       <c r="T7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44366</v>
+        <v>44368</v>
       </c>
       <c r="U7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44367</v>
+        <v>44369</v>
       </c>
       <c r="V7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="W7" s="139">
         <f ca="1">V7+1</f>
-        <v>44369</v>
+        <v>44371</v>
       </c>
       <c r="X7" s="139">
         <f ca="1">W7+1</f>
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="Y7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44371</v>
+        <v>44373</v>
       </c>
       <c r="Z7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44372</v>
+        <v>44374</v>
       </c>
       <c r="AA7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="AB7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44374</v>
+        <v>44376</v>
       </c>
       <c r="AC7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44375</v>
+        <v>44377</v>
       </c>
       <c r="AD7" s="139">
         <f ca="1">AC7+1</f>
-        <v>44376</v>
+        <v>44378</v>
       </c>
       <c r="AE7" s="139">
         <f ca="1">AD7+1</f>
-        <v>44377</v>
+        <v>44379</v>
       </c>
       <c r="AF7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44378</v>
+        <v>44380</v>
       </c>
       <c r="AG7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44379</v>
+        <v>44381</v>
       </c>
       <c r="AH7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44380</v>
+        <v>44382</v>
       </c>
       <c r="AI7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44381</v>
+        <v>44383</v>
       </c>
       <c r="AJ7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44382</v>
+        <v>44384</v>
       </c>
       <c r="AK7" s="139">
         <f ca="1">AJ7+1</f>
-        <v>44383</v>
+        <v>44385</v>
       </c>
       <c r="AL7" s="139">
         <f ca="1">AK7+1</f>
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="AM7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44385</v>
+        <v>44387</v>
       </c>
       <c r="AN7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44386</v>
+        <v>44388</v>
       </c>
       <c r="AO7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44387</v>
+        <v>44389</v>
       </c>
       <c r="AP7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44388</v>
+        <v>44390</v>
       </c>
       <c r="AQ7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="AR7" s="139">
         <f ca="1">AQ7+1</f>
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="AS7" s="139">
         <f ca="1">AR7+1</f>
-        <v>44391</v>
+        <v>44393</v>
       </c>
       <c r="AT7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44392</v>
+        <v>44394</v>
       </c>
       <c r="AU7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44393</v>
+        <v>44395</v>
       </c>
       <c r="AV7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44394</v>
+        <v>44396</v>
       </c>
       <c r="AW7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44395</v>
+        <v>44397</v>
       </c>
       <c r="AX7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44396</v>
+        <v>44398</v>
       </c>
       <c r="AY7" s="139">
         <f ca="1">AX7+1</f>
-        <v>44397</v>
+        <v>44399</v>
       </c>
       <c r="AZ7" s="139">
         <f ca="1">AY7+1</f>
-        <v>44398</v>
+        <v>44400</v>
       </c>
       <c r="BA7" s="139">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44399</v>
+        <v>44401</v>
       </c>
       <c r="BB7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44400</v>
+        <v>44402</v>
       </c>
       <c r="BC7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44401</v>
+        <v>44403</v>
       </c>
       <c r="BD7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44402</v>
+        <v>44404</v>
       </c>
       <c r="BE7" s="140">
         <f t="shared" ca="1" si="1"/>
-        <v>44403</v>
+        <v>44405</v>
       </c>
       <c r="BF7" s="139">
         <f ca="1">BE7+1</f>
-        <v>44404</v>
+        <v>44406</v>
       </c>
       <c r="BG7" s="139">
         <f ca="1">BF7+1</f>
-        <v>44405</v>
+        <v>44407</v>
       </c>
       <c r="BH7" s="139">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44406</v>
+        <v>44408</v>
       </c>
       <c r="BI7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44407</v>
+        <v>44409</v>
       </c>
       <c r="BJ7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44408</v>
+        <v>44410</v>
       </c>
       <c r="BK7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44409</v>
+        <v>44411</v>
       </c>
       <c r="BL7" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>44410</v>
+        <v>44412</v>
       </c>
       <c r="BM7" s="35"/>
     </row>
@@ -16517,227 +16534,227 @@
       <c r="H9" s="81"/>
       <c r="I9" s="82" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"aaa"),1)</f>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="J9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="K9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="L9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="M9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="N9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="O9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="P9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="Q9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="R9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="S9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="T9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="U9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="V9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="W9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="X9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="Y9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="Z9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AA9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AB9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AC9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AD9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="AE9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="AF9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="AG9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AH9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AI9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AJ9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AK9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="AL9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="AM9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="AN9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AO9" s="82" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"aaa"),1)</f>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AP9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AQ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AR9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="AS9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="AT9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="AU9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="AV9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="AW9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="AX9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="AY9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="AZ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="BA9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="BB9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="BC9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="BD9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="BE9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="BF9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>四</v>
       </c>
       <c r="BG9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>五</v>
       </c>
       <c r="BH9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>六</v>
       </c>
       <c r="BI9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>日</v>
       </c>
       <c r="BJ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>一</v>
       </c>
       <c r="BK9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>二</v>
       </c>
       <c r="BL9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>三</v>
       </c>
       <c r="BM9" s="35"/>
     </row>
@@ -17061,7 +17078,7 @@
       </c>
       <c r="F12" s="87">
         <f ca="1">TODAY()</f>
-        <v>44355</v>
+        <v>44357</v>
       </c>
       <c r="G12" s="88">
         <v>3</v>
@@ -17305,7 +17322,7 @@
       <c r="E13" s="86"/>
       <c r="F13" s="87">
         <f ca="1">TODAY()+5</f>
-        <v>44360</v>
+        <v>44362</v>
       </c>
       <c r="G13" s="88">
         <v>1</v>
@@ -17551,7 +17568,7 @@
       </c>
       <c r="F14" s="87">
         <f ca="1">F12-3</f>
-        <v>44352</v>
+        <v>44354</v>
       </c>
       <c r="G14" s="88">
         <v>10</v>
@@ -17795,7 +17812,7 @@
       <c r="E15" s="86"/>
       <c r="F15" s="87">
         <f ca="1">F12+20</f>
-        <v>44375</v>
+        <v>44377</v>
       </c>
       <c r="G15" s="88">
         <v>1</v>
@@ -18041,7 +18058,7 @@
       </c>
       <c r="F16" s="87">
         <f ca="1">F12+6</f>
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="G16" s="88">
         <v>6</v>
@@ -18524,7 +18541,7 @@
       </c>
       <c r="F18" s="87">
         <f ca="1">F12+6</f>
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="G18" s="88">
         <v>13</v>
@@ -18770,7 +18787,7 @@
       </c>
       <c r="F19" s="87">
         <f ca="1">F18+2</f>
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="G19" s="88">
         <v>9</v>
@@ -19016,7 +19033,7 @@
       </c>
       <c r="F20" s="87">
         <f ca="1">F19+5</f>
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="G20" s="88">
         <v>11</v>
@@ -19260,7 +19277,7 @@
       <c r="E21" s="86"/>
       <c r="F21" s="87">
         <f ca="1">F20+2</f>
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="G21" s="88">
         <v>1</v>
@@ -19502,7 +19519,7 @@
       <c r="E22" s="86"/>
       <c r="F22" s="87">
         <f ca="1">F21+1</f>
-        <v>44371</v>
+        <v>44373</v>
       </c>
       <c r="G22" s="88">
         <v>24</v>
@@ -19983,7 +20000,7 @@
       <c r="E24" s="86"/>
       <c r="F24" s="87">
         <f ca="1">F12+15</f>
-        <v>44370</v>
+        <v>44372</v>
       </c>
       <c r="G24" s="88">
         <v>4</v>
@@ -20227,7 +20244,7 @@
       <c r="E25" s="86"/>
       <c r="F25" s="87">
         <f ca="1">F24+3</f>
-        <v>44373</v>
+        <v>44375</v>
       </c>
       <c r="G25" s="88">
         <v>14</v>
@@ -20471,7 +20488,7 @@
       <c r="E26" s="86"/>
       <c r="F26" s="87">
         <f ca="1">F25+15</f>
-        <v>44388</v>
+        <v>44390</v>
       </c>
       <c r="G26" s="88">
         <v>6</v>
@@ -20715,7 +20732,7 @@
       <c r="E27" s="86"/>
       <c r="F27" s="87">
         <f ca="1">F21+22</f>
-        <v>44392</v>
+        <v>44394</v>
       </c>
       <c r="G27" s="88">
         <v>3</v>
@@ -20959,7 +20976,7 @@
       <c r="E28" s="86"/>
       <c r="F28" s="87">
         <f ca="1">F16</f>
-        <v>44361</v>
+        <v>44363</v>
       </c>
       <c r="G28" s="88">
         <v>19</v>
@@ -21438,7 +21455,7 @@
       <c r="E30" s="86"/>
       <c r="F30" s="87">
         <f ca="1">F27+3</f>
-        <v>44395</v>
+        <v>44397</v>
       </c>
       <c r="G30" s="88">
         <v>15</v>
@@ -21680,7 +21697,7 @@
       <c r="E31" s="86"/>
       <c r="F31" s="87">
         <f ca="1">F30+14</f>
-        <v>44409</v>
+        <v>44411</v>
       </c>
       <c r="G31" s="88">
         <v>5</v>
@@ -21924,7 +21941,7 @@
       <c r="E32" s="86"/>
       <c r="F32" s="87">
         <f ca="1">F31+42</f>
-        <v>44451</v>
+        <v>44453</v>
       </c>
       <c r="G32" s="88">
         <v>1</v>
@@ -23128,22 +23145,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23423,22 +23430,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -23465,9 +23478,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/shardSystem 甘特图.xlsx
+++ b/shardSystem 甘特图.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="69">
   <si>
     <t>关于此甘特图</t>
   </si>
@@ -301,6 +301,14 @@
     <t>重新捡起</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>单分片更改成多分片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络部署</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -313,7 +321,7 @@
     <numFmt numFmtId="177" formatCode="d"/>
     <numFmt numFmtId="178" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,8 +636,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,6 +928,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF969696"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1316,7 @@
     <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1666,6 +1716,24 @@
     <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="45" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1717,22 +1785,59 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="38" fillId="45" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="45" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="50" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="46" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="54" fillId="46" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="53" fillId="46" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="53" fillId="46" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="46" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2792,11 +2897,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF969696"/>
       <color rgb="FFC0C0C0"/>
       <color rgb="FF000000"/>
       <color rgb="FF215881"/>
       <color rgb="FF42648A"/>
-      <color rgb="FF969696"/>
       <color rgb="FF427FC2"/>
       <color rgb="FF44678E"/>
       <color rgb="FF4A6F9C"/>
@@ -3426,11 +3531,11 @@
     <row r="2" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="39"/>
       <c r="B2" s="41"/>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
       <c r="F2" s="41"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -3458,11 +3563,11 @@
     <row r="4" spans="1:13" s="6" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="39"/>
       <c r="B4" s="42"/>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
       <c r="F4" s="42"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
@@ -3475,11 +3580,11 @@
     <row r="5" spans="1:13" s="6" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="39"/>
       <c r="B5" s="42"/>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
       <c r="F5" s="42"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
@@ -3720,7 +3825,7 @@
   <dimension ref="A1:BQ32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3742,28 +3847,28 @@
     <row r="1" spans="1:69" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:69" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
       <c r="X2" s="49"/>
@@ -3892,40 +3997,40 @@
         <v>30</v>
       </c>
       <c r="I4" s="58"/>
-      <c r="J4" s="158" t="s">
+      <c r="J4" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
       <c r="N4" s="35"/>
-      <c r="O4" s="159" t="s">
+      <c r="O4" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
       <c r="S4" s="35"/>
-      <c r="T4" s="160" t="s">
+      <c r="T4" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
       <c r="X4" s="35"/>
-      <c r="Y4" s="153" t="s">
+      <c r="Y4" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="153"/>
-      <c r="AB4" s="153"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
       <c r="AC4" s="35"/>
-      <c r="AD4" s="154" t="s">
+      <c r="AD4" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="154"/>
-      <c r="AG4" s="154"/>
+      <c r="AE4" s="160"/>
+      <c r="AF4" s="160"/>
+      <c r="AG4" s="160"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
       <c r="AJ4" s="35"/>
@@ -4037,7 +4142,7 @@
       </c>
       <c r="C6" s="64">
         <f ca="1">IFERROR(IF(MIN(里程碑_4352[开始])=0,TODAY(),B11(里程碑_4352[开始])),TODAY())</f>
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="D6" s="65"/>
       <c r="E6" s="58"/>
@@ -4117,7 +4222,7 @@
       <c r="BF6" s="70"/>
       <c r="BG6" s="70" t="str">
         <f ca="1">IF(OR(TEXT(BG7,"m月")=AZ6,TEXT(BG7,"m月")=AS6,TEXT(BG7,"m月")=AL6,TEXT(BG7,"m月")=AE6),"",TEXT(BG7,"m月"))</f>
-        <v/>
+        <v>8月</v>
       </c>
       <c r="BH6" s="70"/>
       <c r="BI6" s="70"/>
@@ -4143,227 +4248,227 @@
       <c r="I7" s="72"/>
       <c r="J7" s="138">
         <f ca="1">IFERROR(项目_开始日期+滚动_增量,TODAY())</f>
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="K7" s="139">
         <f ca="1">J7+1</f>
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="L7" s="139">
         <f t="shared" ref="L7:AY7" ca="1" si="0">K7+1</f>
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="M7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="N7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="O7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="P7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="Q7" s="139">
         <f ca="1">P7+1</f>
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="R7" s="139">
         <f ca="1">Q7+1</f>
-        <v>44365</v>
+        <v>44368</v>
       </c>
       <c r="S7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44366</v>
+        <v>44369</v>
       </c>
       <c r="T7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="U7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="V7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="W7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="X7" s="139">
         <f ca="1">W7+1</f>
-        <v>44371</v>
+        <v>44374</v>
       </c>
       <c r="Y7" s="139">
         <f ca="1">X7+1</f>
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="Z7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44373</v>
+        <v>44376</v>
       </c>
       <c r="AA7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44374</v>
+        <v>44377</v>
       </c>
       <c r="AB7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="AC7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="AD7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44377</v>
+        <v>44380</v>
       </c>
       <c r="AE7" s="139">
         <f ca="1">AD7+1</f>
-        <v>44378</v>
+        <v>44381</v>
       </c>
       <c r="AF7" s="139">
         <f ca="1">AE7+1</f>
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="AG7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44380</v>
+        <v>44383</v>
       </c>
       <c r="AH7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44381</v>
+        <v>44384</v>
       </c>
       <c r="AI7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44382</v>
+        <v>44385</v>
       </c>
       <c r="AJ7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="AK7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44384</v>
+        <v>44387</v>
       </c>
       <c r="AL7" s="139">
         <f ca="1">AK7+1</f>
-        <v>44385</v>
+        <v>44388</v>
       </c>
       <c r="AM7" s="139">
         <f ca="1">AL7+1</f>
-        <v>44386</v>
+        <v>44389</v>
       </c>
       <c r="AN7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44387</v>
+        <v>44390</v>
       </c>
       <c r="AO7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44388</v>
+        <v>44391</v>
       </c>
       <c r="AP7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44389</v>
+        <v>44392</v>
       </c>
       <c r="AQ7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44390</v>
+        <v>44393</v>
       </c>
       <c r="AR7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44391</v>
+        <v>44394</v>
       </c>
       <c r="AS7" s="139">
         <f ca="1">AR7+1</f>
-        <v>44392</v>
+        <v>44395</v>
       </c>
       <c r="AT7" s="139">
         <f ca="1">AS7+1</f>
-        <v>44393</v>
+        <v>44396</v>
       </c>
       <c r="AU7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44394</v>
+        <v>44397</v>
       </c>
       <c r="AV7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44395</v>
+        <v>44398</v>
       </c>
       <c r="AW7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44396</v>
+        <v>44399</v>
       </c>
       <c r="AX7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44397</v>
+        <v>44400</v>
       </c>
       <c r="AY7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44398</v>
+        <v>44401</v>
       </c>
       <c r="AZ7" s="139">
         <f ca="1">AY7+1</f>
-        <v>44399</v>
+        <v>44402</v>
       </c>
       <c r="BA7" s="139">
         <f ca="1">AZ7+1</f>
-        <v>44400</v>
+        <v>44403</v>
       </c>
       <c r="BB7" s="139">
         <f t="shared" ref="BB7:BF7" ca="1" si="1">BA7+1</f>
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="BC7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44402</v>
+        <v>44405</v>
       </c>
       <c r="BD7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44403</v>
+        <v>44406</v>
       </c>
       <c r="BE7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44404</v>
+        <v>44407</v>
       </c>
       <c r="BF7" s="140">
         <f t="shared" ca="1" si="1"/>
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="BG7" s="139">
         <f ca="1">BF7+1</f>
-        <v>44406</v>
+        <v>44409</v>
       </c>
       <c r="BH7" s="139">
         <f ca="1">BG7+1</f>
-        <v>44407</v>
+        <v>44410</v>
       </c>
       <c r="BI7" s="139">
         <f t="shared" ref="BI7:BM7" ca="1" si="2">BH7+1</f>
-        <v>44408</v>
+        <v>44411</v>
       </c>
       <c r="BJ7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44409</v>
+        <v>44412</v>
       </c>
       <c r="BK7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44410</v>
+        <v>44413</v>
       </c>
       <c r="BL7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44411</v>
+        <v>44414</v>
       </c>
       <c r="BM7" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>44412</v>
+        <v>44415</v>
       </c>
       <c r="BN7" s="35"/>
     </row>
@@ -4461,227 +4566,227 @@
       <c r="I9" s="81"/>
       <c r="J9" s="82" t="str">
         <f t="shared" ref="J9:AO9" ca="1" si="3">LEFT(TEXT(J7,"aaa"),1)</f>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="K9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="L9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="M9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="N9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="O9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="P9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="Q9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="R9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="S9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="T9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="U9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="V9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="W9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="X9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="Y9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="Z9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="AA9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AB9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AC9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AD9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AE9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="AF9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="AG9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="AH9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AI9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AJ9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AK9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AL9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="AM9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="AN9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="AO9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AP9" s="82" t="str">
         <f t="shared" ref="AP9:BM9" ca="1" si="4">LEFT(TEXT(AP7,"aaa"),1)</f>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AQ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AR9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AS9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="AT9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="AU9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="AV9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AW9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AX9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AY9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AZ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="BA9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="BB9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="BC9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="BD9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="BE9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="BF9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="BG9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="BH9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="BI9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="BJ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="BK9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="BL9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="BM9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="BN9" s="35"/>
     </row>
@@ -5850,25 +5955,25 @@
     </row>
     <row r="19" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="168" t="s">
+      <c r="B19" s="151" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="169" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="170">
+      <c r="E19" s="153">
         <v>0.5</v>
       </c>
-      <c r="F19" s="171">
+      <c r="F19" s="154">
         <v>44351</v>
       </c>
-      <c r="G19" s="172" t="s">
+      <c r="G19" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="173" t="s">
+      <c r="H19" s="156" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="89"/>
@@ -6424,251 +6529,250 @@
       </c>
       <c r="BN21" s="15"/>
     </row>
-    <row r="22" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="90" t="s">
+    <row r="22" spans="1:66" s="192" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="184"/>
+      <c r="B22" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="86">
+      <c r="E22" s="187">
         <v>0.2</v>
       </c>
-      <c r="F22" s="87">
+      <c r="F22" s="188">
         <v>44348</v>
       </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="17" t="str">
+      <c r="G22" s="188"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="191" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="K22" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="L22" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="M22" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="N22" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="O22" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="P22" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="Q22" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="R22" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="S22" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="T22" s="17" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="U22" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="V22" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="W22" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="X22" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Y22" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="Z22" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AA22" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AB22" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AC22" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AD22" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="AE22" s="17" t="str">
+      <c r="K22" s="191" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="L22" s="191" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="M22" s="191" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="N22" s="191" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="O22" s="191" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="P22" s="191" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="Q22" s="191" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="R22" s="191" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="S22" s="191" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="T22" s="191" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="U22" s="191" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="V22" s="191" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="W22" s="191" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="X22" s="191" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Y22" s="191" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="Z22" s="191" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AA22" s="191" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AB22" s="191" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AC22" s="191" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AD22" s="191" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AE22" s="191" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AF22" s="17" t="str">
+      <c r="AF22" s="191" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AG22" s="17" t="str">
+      <c r="AG22" s="191" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AH22" s="17" t="str">
+      <c r="AH22" s="191" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AI22" s="17" t="str">
+      <c r="AI22" s="191" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AJ22" s="17" t="str">
+      <c r="AJ22" s="191" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AK22" s="17" t="str">
+      <c r="AK22" s="191" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AL22" s="17" t="str">
+      <c r="AL22" s="191" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AM22" s="17" t="str">
+      <c r="AM22" s="191" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AN22" s="17" t="str">
+      <c r="AN22" s="191" t="str">
         <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
-      <c r="AO22" s="17" t="str">
+      <c r="AO22" s="191" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AP22" s="17" t="str">
+      <c r="AP22" s="191" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AQ22" s="17" t="str">
+      <c r="AQ22" s="191" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AR22" s="17" t="str">
+      <c r="AR22" s="191" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AS22" s="17" t="str">
+      <c r="AS22" s="191" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AT22" s="17" t="str">
+      <c r="AT22" s="191" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AU22" s="17" t="str">
+      <c r="AU22" s="191" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AV22" s="17" t="str">
+      <c r="AV22" s="191" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AW22" s="17" t="str">
+      <c r="AW22" s="191" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AX22" s="17" t="str">
+      <c r="AX22" s="191" t="str">
         <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
-      <c r="AY22" s="17" t="str">
+      <c r="AY22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="AZ22" s="17" t="str">
+      <c r="AZ22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BA22" s="17" t="str">
+      <c r="BA22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BB22" s="17" t="str">
+      <c r="BB22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BC22" s="17" t="str">
+      <c r="BC22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BD22" s="17" t="str">
+      <c r="BD22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BE22" s="17" t="str">
+      <c r="BE22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BF22" s="17" t="str">
+      <c r="BF22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BG22" s="17" t="str">
+      <c r="BG22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BH22" s="17" t="str">
+      <c r="BH22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BI22" s="17" t="str">
+      <c r="BI22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BJ22" s="17" t="str">
+      <c r="BJ22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BK22" s="17" t="str">
+      <c r="BK22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BL22" s="17" t="str">
+      <c r="BL22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BM22" s="17" t="str">
+      <c r="BM22" s="191" t="str">
         <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
-      <c r="BN22" s="15"/>
     </row>
     <row r="23" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
@@ -6757,13 +6861,13 @@
         <v>64</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" s="85" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="86">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F24" s="87">
         <v>44357</v>
@@ -6979,241 +7083,251 @@
       </c>
       <c r="BN24" s="15"/>
     </row>
-    <row r="25" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="90" t="s">
+    <row r="25" spans="1:66" s="183" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="174"/>
+      <c r="B25" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="86">
+      <c r="E25" s="177">
         <v>0.1</v>
       </c>
-      <c r="F25" s="87">
+      <c r="F25" s="178">
         <v>44344</v>
       </c>
-      <c r="G25" s="87"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17" t="str">
+      <c r="G25" s="178"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="181"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="181" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="Q25" s="17" t="str">
+      <c r="Q25" s="181" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="R25" s="17" t="str">
+      <c r="R25" s="181" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="S25" s="17" t="str">
+      <c r="S25" s="181" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="T25" s="17" t="str">
+      <c r="T25" s="181" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="U25" s="17" t="str">
+      <c r="U25" s="181" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="V25" s="17" t="str">
+      <c r="V25" s="181" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="W25" s="17" t="str">
+      <c r="W25" s="181" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="X25" s="17" t="str">
+      <c r="X25" s="181" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="Y25" s="17" t="str">
+      <c r="Y25" s="181" t="str">
         <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
-      <c r="Z25" s="17" t="str">
+      <c r="Z25" s="181" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AA25" s="17" t="str">
+      <c r="AA25" s="181" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AB25" s="17" t="str">
+      <c r="AB25" s="181" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AC25" s="17" t="str">
+      <c r="AC25" s="181" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AD25" s="17" t="str">
+      <c r="AD25" s="181" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AE25" s="17" t="str">
+      <c r="AE25" s="181" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AF25" s="17" t="str">
+      <c r="AF25" s="181" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AG25" s="17" t="str">
+      <c r="AG25" s="181" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AH25" s="17" t="str">
+      <c r="AH25" s="181" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AI25" s="17" t="str">
+      <c r="AI25" s="181" t="str">
         <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
-      <c r="AJ25" s="17" t="str">
+      <c r="AJ25" s="181" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="AK25" s="17" t="str">
+      <c r="AK25" s="181" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="AL25" s="17" t="str">
+      <c r="AL25" s="181" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="AM25" s="17" t="str">
+      <c r="AM25" s="181" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="AN25" s="17" t="str">
+      <c r="AN25" s="181" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="AO25" s="17" t="str">
+      <c r="AO25" s="181" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="AP25" s="17" t="str">
+      <c r="AP25" s="181" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="AQ25" s="17" t="str">
+      <c r="AQ25" s="181" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="AR25" s="17" t="str">
+      <c r="AR25" s="181" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="AS25" s="17" t="str">
+      <c r="AS25" s="181" t="str">
         <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
-      <c r="AT25" s="17" t="str">
+      <c r="AT25" s="181" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="AU25" s="17" t="str">
+      <c r="AU25" s="181" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="AV25" s="17" t="str">
+      <c r="AV25" s="181" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="AW25" s="17" t="str">
+      <c r="AW25" s="181" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="AX25" s="17" t="str">
+      <c r="AX25" s="181" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="AY25" s="17" t="str">
+      <c r="AY25" s="181" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="AZ25" s="17" t="str">
+      <c r="AZ25" s="181" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="BA25" s="17" t="str">
+      <c r="BA25" s="181" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="BB25" s="17" t="str">
+      <c r="BB25" s="181" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="BC25" s="17" t="str">
+      <c r="BC25" s="181" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
-      <c r="BD25" s="17" t="str">
+      <c r="BD25" s="181" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="BE25" s="17" t="str">
+      <c r="BE25" s="181" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="BF25" s="17" t="str">
+      <c r="BF25" s="181" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="BG25" s="17" t="str">
+      <c r="BG25" s="181" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="BH25" s="17" t="str">
+      <c r="BH25" s="181" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="BI25" s="17" t="str">
+      <c r="BI25" s="181" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="BJ25" s="17" t="str">
+      <c r="BJ25" s="181" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="BK25" s="17" t="str">
+      <c r="BK25" s="181" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="BL25" s="17" t="str">
+      <c r="BL25" s="181" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="BM25" s="17" t="str">
+      <c r="BM25" s="181" t="str">
         <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
-      <c r="BN25" s="15"/>
+      <c r="BN25" s="182"/>
     </row>
     <row r="26" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="87"/>
+      <c r="B26" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="86">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="87">
+        <v>44359</v>
+      </c>
       <c r="G26" s="87"/>
       <c r="H26" s="88"/>
       <c r="I26" s="89"/>
@@ -7427,11 +7541,21 @@
     </row>
     <row r="27" spans="1:66" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+      <c r="B27" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="86">
+        <v>0</v>
+      </c>
+      <c r="F27" s="87">
+        <v>44360</v>
+      </c>
       <c r="G27" s="87"/>
       <c r="H27" s="88"/>
       <c r="I27" s="89"/>
@@ -8479,27 +8603,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
@@ -8626,40 +8750,40 @@
         <v>30</v>
       </c>
       <c r="H4" s="106"/>
-      <c r="I4" s="158" t="s">
+      <c r="I4" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
       <c r="M4" s="20"/>
-      <c r="N4" s="159" t="s">
+      <c r="N4" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
       <c r="R4" s="20"/>
-      <c r="S4" s="160" t="s">
+      <c r="S4" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
       <c r="W4" s="20"/>
-      <c r="X4" s="153" t="s">
+      <c r="X4" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="153"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
       <c r="AB4" s="20"/>
-      <c r="AC4" s="154" t="s">
+      <c r="AC4" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="154"/>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="154"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="160"/>
+      <c r="AF4" s="160"/>
       <c r="AG4" s="20"/>
       <c r="AH4" s="20"/>
       <c r="AI4" s="20"/>
@@ -8770,7 +8894,7 @@
       </c>
       <c r="C6" s="112" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(里程碑_435[开始])=0,TODAY(),B11(里程碑_435[开始])),TODAY())</f>
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="D6" s="113"/>
       <c r="E6" s="20"/>
@@ -8849,7 +8973,7 @@
       <c r="BE6" s="116"/>
       <c r="BF6" s="116" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"m月")=AY6,TEXT(BF7,"m月")=AR6,TEXT(BF7,"m月")=AK6,TEXT(BF7,"m月")=AD6),"",TEXT(BF7,"m月"))</f>
-        <v/>
+        <v>8月</v>
       </c>
       <c r="BG6" s="116"/>
       <c r="BH6" s="116"/>
@@ -8874,227 +8998,227 @@
       <c r="H7" s="110"/>
       <c r="I7" s="141">
         <f ca="1">IFERROR(项目_开始日期+滚动_增量,TODAY())</f>
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="J7" s="142">
         <f ca="1">I7+1</f>
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="K7" s="142">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="L7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="M7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="N7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="O7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="P7" s="142">
         <f ca="1">O7+1</f>
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="Q7" s="142">
         <f ca="1">P7+1</f>
-        <v>44365</v>
+        <v>44368</v>
       </c>
       <c r="R7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44366</v>
+        <v>44369</v>
       </c>
       <c r="S7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="T7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="U7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="V7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="W7" s="142">
         <f ca="1">V7+1</f>
-        <v>44371</v>
+        <v>44374</v>
       </c>
       <c r="X7" s="142">
         <f ca="1">W7+1</f>
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="Y7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44373</v>
+        <v>44376</v>
       </c>
       <c r="Z7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44374</v>
+        <v>44377</v>
       </c>
       <c r="AA7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="AB7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="AC7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44377</v>
+        <v>44380</v>
       </c>
       <c r="AD7" s="142">
         <f ca="1">AC7+1</f>
-        <v>44378</v>
+        <v>44381</v>
       </c>
       <c r="AE7" s="142">
         <f ca="1">AD7+1</f>
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="AF7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44380</v>
+        <v>44383</v>
       </c>
       <c r="AG7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44381</v>
+        <v>44384</v>
       </c>
       <c r="AH7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44382</v>
+        <v>44385</v>
       </c>
       <c r="AI7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="AJ7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44384</v>
+        <v>44387</v>
       </c>
       <c r="AK7" s="142">
         <f ca="1">AJ7+1</f>
-        <v>44385</v>
+        <v>44388</v>
       </c>
       <c r="AL7" s="142">
         <f ca="1">AK7+1</f>
-        <v>44386</v>
+        <v>44389</v>
       </c>
       <c r="AM7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44387</v>
+        <v>44390</v>
       </c>
       <c r="AN7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44388</v>
+        <v>44391</v>
       </c>
       <c r="AO7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44389</v>
+        <v>44392</v>
       </c>
       <c r="AP7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44390</v>
+        <v>44393</v>
       </c>
       <c r="AQ7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44391</v>
+        <v>44394</v>
       </c>
       <c r="AR7" s="142">
         <f ca="1">AQ7+1</f>
-        <v>44392</v>
+        <v>44395</v>
       </c>
       <c r="AS7" s="142">
         <f ca="1">AR7+1</f>
-        <v>44393</v>
+        <v>44396</v>
       </c>
       <c r="AT7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44394</v>
+        <v>44397</v>
       </c>
       <c r="AU7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44395</v>
+        <v>44398</v>
       </c>
       <c r="AV7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44396</v>
+        <v>44399</v>
       </c>
       <c r="AW7" s="142">
         <f t="shared" ca="1" si="0"/>
-        <v>44397</v>
+        <v>44400</v>
       </c>
       <c r="AX7" s="143">
         <f t="shared" ca="1" si="0"/>
-        <v>44398</v>
+        <v>44401</v>
       </c>
       <c r="AY7" s="142">
         <f ca="1">AX7+1</f>
-        <v>44399</v>
+        <v>44402</v>
       </c>
       <c r="AZ7" s="142">
         <f ca="1">AY7+1</f>
-        <v>44400</v>
+        <v>44403</v>
       </c>
       <c r="BA7" s="142">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="BB7" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>44402</v>
+        <v>44405</v>
       </c>
       <c r="BC7" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>44403</v>
+        <v>44406</v>
       </c>
       <c r="BD7" s="142">
         <f t="shared" ca="1" si="1"/>
-        <v>44404</v>
+        <v>44407</v>
       </c>
       <c r="BE7" s="143">
         <f t="shared" ca="1" si="1"/>
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="BF7" s="142">
         <f ca="1">BE7+1</f>
-        <v>44406</v>
+        <v>44409</v>
       </c>
       <c r="BG7" s="142">
         <f ca="1">BF7+1</f>
-        <v>44407</v>
+        <v>44410</v>
       </c>
       <c r="BH7" s="142">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44408</v>
+        <v>44411</v>
       </c>
       <c r="BI7" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>44409</v>
+        <v>44412</v>
       </c>
       <c r="BJ7" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>44410</v>
+        <v>44413</v>
       </c>
       <c r="BK7" s="142">
         <f t="shared" ca="1" si="2"/>
-        <v>44411</v>
+        <v>44414</v>
       </c>
       <c r="BL7" s="144">
         <f t="shared" ca="1" si="2"/>
-        <v>44412</v>
+        <v>44415</v>
       </c>
       <c r="BM7" s="20"/>
     </row>
@@ -9188,227 +9312,227 @@
       <c r="H9" s="124"/>
       <c r="I9" s="125" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"aaa"),1)</f>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="J9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="K9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="L9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="M9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="N9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="O9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="P9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="Q9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="R9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="S9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="T9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="U9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="V9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="W9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="X9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="Y9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="Z9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AA9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AB9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AC9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AD9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="AE9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="AF9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="AG9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AH9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AI9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AJ9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AK9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="AL9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="AM9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="AN9" s="125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AO9" s="125" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"aaa"),1)</f>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AP9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AQ9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AR9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="AS9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="AT9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="AU9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AV9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AW9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AX9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AY9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="AZ9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="BA9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="BB9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="BC9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="BD9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="BE9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="BF9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="BG9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="BH9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="BI9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="BJ9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="BK9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="BL9" s="125" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="BM9" s="20"/>
     </row>
@@ -9732,7 +9856,7 @@
       </c>
       <c r="F12" s="129">
         <f ca="1">TODAY()</f>
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="G12" s="130">
         <v>3</v>
@@ -9976,7 +10100,7 @@
       <c r="E13" s="128"/>
       <c r="F13" s="129">
         <f ca="1">TODAY()+5</f>
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="G13" s="130">
         <v>1</v>
@@ -10222,7 +10346,7 @@
       </c>
       <c r="F14" s="129">
         <f ca="1">F12-3</f>
-        <v>44354</v>
+        <v>44357</v>
       </c>
       <c r="G14" s="130">
         <v>10</v>
@@ -10466,7 +10590,7 @@
       <c r="E15" s="128"/>
       <c r="F15" s="129">
         <f ca="1">F12+20</f>
-        <v>44377</v>
+        <v>44380</v>
       </c>
       <c r="G15" s="130">
         <v>1</v>
@@ -10712,7 +10836,7 @@
       </c>
       <c r="F16" s="129">
         <f ca="1">F12+6</f>
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="G16" s="130">
         <v>6</v>
@@ -11195,7 +11319,7 @@
       </c>
       <c r="F18" s="129">
         <f ca="1">F12+6</f>
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="G18" s="130">
         <v>13</v>
@@ -11441,7 +11565,7 @@
       </c>
       <c r="F19" s="129">
         <f ca="1">F18+2</f>
-        <v>44365</v>
+        <v>44368</v>
       </c>
       <c r="G19" s="130">
         <v>9</v>
@@ -11687,7 +11811,7 @@
       </c>
       <c r="F20" s="129">
         <f ca="1">F19+5</f>
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="G20" s="130">
         <v>11</v>
@@ -11931,7 +12055,7 @@
       <c r="E21" s="128"/>
       <c r="F21" s="129">
         <f ca="1">F20+2</f>
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="G21" s="130">
         <v>1</v>
@@ -12173,7 +12297,7 @@
       <c r="E22" s="128"/>
       <c r="F22" s="129">
         <f ca="1">F21+1</f>
-        <v>44373</v>
+        <v>44376</v>
       </c>
       <c r="G22" s="130">
         <v>24</v>
@@ -12654,7 +12778,7 @@
       <c r="E24" s="128"/>
       <c r="F24" s="129">
         <f ca="1">F12+15</f>
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="G24" s="130">
         <v>4</v>
@@ -12898,7 +13022,7 @@
       <c r="E25" s="128"/>
       <c r="F25" s="129">
         <f ca="1">F24+3</f>
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="G25" s="130">
         <v>14</v>
@@ -13142,7 +13266,7 @@
       <c r="E26" s="128"/>
       <c r="F26" s="129">
         <f ca="1">F25+15</f>
-        <v>44390</v>
+        <v>44393</v>
       </c>
       <c r="G26" s="130">
         <v>6</v>
@@ -13386,7 +13510,7 @@
       <c r="E27" s="128"/>
       <c r="F27" s="129">
         <f ca="1">F21+22</f>
-        <v>44394</v>
+        <v>44397</v>
       </c>
       <c r="G27" s="130">
         <v>3</v>
@@ -13630,7 +13754,7 @@
       <c r="E28" s="128"/>
       <c r="F28" s="129">
         <f ca="1">F16</f>
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="G28" s="130">
         <v>19</v>
@@ -14109,7 +14233,7 @@
       <c r="E30" s="128"/>
       <c r="F30" s="129">
         <f ca="1">F27+3</f>
-        <v>44397</v>
+        <v>44400</v>
       </c>
       <c r="G30" s="130">
         <v>15</v>
@@ -14351,7 +14475,7 @@
       <c r="E31" s="128"/>
       <c r="F31" s="129">
         <f ca="1">F30+14</f>
-        <v>44411</v>
+        <v>44414</v>
       </c>
       <c r="G31" s="130">
         <v>5</v>
@@ -14595,7 +14719,7 @@
       <c r="E32" s="128"/>
       <c r="F32" s="129">
         <f ca="1">F31+42</f>
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="G32" s="130">
         <v>1</v>
@@ -15825,27 +15949,27 @@
     <row r="1" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:68" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
       <c r="U2" s="135"/>
       <c r="V2" s="135"/>
       <c r="W2" s="135"/>
@@ -15972,40 +16096,40 @@
         <v>30</v>
       </c>
       <c r="H4" s="58"/>
-      <c r="I4" s="158" t="s">
+      <c r="I4" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="159" t="s">
+      <c r="N4" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
       <c r="R4" s="35"/>
-      <c r="S4" s="160" t="s">
+      <c r="S4" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
+      <c r="T4" s="166"/>
+      <c r="U4" s="166"/>
+      <c r="V4" s="166"/>
       <c r="W4" s="35"/>
-      <c r="X4" s="153" t="s">
+      <c r="X4" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="153"/>
-      <c r="Z4" s="153"/>
-      <c r="AA4" s="153"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
       <c r="AB4" s="35"/>
-      <c r="AC4" s="154" t="s">
+      <c r="AC4" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="154"/>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="154"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="160"/>
+      <c r="AF4" s="160"/>
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
@@ -16116,7 +16240,7 @@
       </c>
       <c r="C6" s="64" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(里程碑_43524[开始])=0,TODAY(),B11(里程碑_43524[开始])),TODAY())</f>
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="D6" s="65"/>
       <c r="E6" s="58"/>
@@ -16195,7 +16319,7 @@
       <c r="BE6" s="70"/>
       <c r="BF6" s="70" t="str">
         <f ca="1">IF(OR(TEXT(BF7,"m月")=AY6,TEXT(BF7,"m月")=AR6,TEXT(BF7,"m月")=AK6,TEXT(BF7,"m月")=AD6),"",TEXT(BF7,"m月"))</f>
-        <v/>
+        <v>8月</v>
       </c>
       <c r="BG6" s="70"/>
       <c r="BH6" s="70"/>
@@ -16220,227 +16344,227 @@
       <c r="H7" s="72"/>
       <c r="I7" s="138">
         <f ca="1">IFERROR(项目_开始日期+滚动_增量,TODAY())</f>
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="J7" s="139">
         <f ca="1">I7+1</f>
-        <v>44358</v>
+        <v>44361</v>
       </c>
       <c r="K7" s="139">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="L7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44360</v>
+        <v>44363</v>
       </c>
       <c r="M7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44361</v>
+        <v>44364</v>
       </c>
       <c r="N7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="O7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="P7" s="139">
         <f ca="1">O7+1</f>
-        <v>44364</v>
+        <v>44367</v>
       </c>
       <c r="Q7" s="139">
         <f ca="1">P7+1</f>
-        <v>44365</v>
+        <v>44368</v>
       </c>
       <c r="R7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44366</v>
+        <v>44369</v>
       </c>
       <c r="S7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44367</v>
+        <v>44370</v>
       </c>
       <c r="T7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="U7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44369</v>
+        <v>44372</v>
       </c>
       <c r="V7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="W7" s="139">
         <f ca="1">V7+1</f>
-        <v>44371</v>
+        <v>44374</v>
       </c>
       <c r="X7" s="139">
         <f ca="1">W7+1</f>
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="Y7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44373</v>
+        <v>44376</v>
       </c>
       <c r="Z7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44374</v>
+        <v>44377</v>
       </c>
       <c r="AA7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="AB7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44376</v>
+        <v>44379</v>
       </c>
       <c r="AC7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44377</v>
+        <v>44380</v>
       </c>
       <c r="AD7" s="139">
         <f ca="1">AC7+1</f>
-        <v>44378</v>
+        <v>44381</v>
       </c>
       <c r="AE7" s="139">
         <f ca="1">AD7+1</f>
-        <v>44379</v>
+        <v>44382</v>
       </c>
       <c r="AF7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44380</v>
+        <v>44383</v>
       </c>
       <c r="AG7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44381</v>
+        <v>44384</v>
       </c>
       <c r="AH7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44382</v>
+        <v>44385</v>
       </c>
       <c r="AI7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44383</v>
+        <v>44386</v>
       </c>
       <c r="AJ7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44384</v>
+        <v>44387</v>
       </c>
       <c r="AK7" s="139">
         <f ca="1">AJ7+1</f>
-        <v>44385</v>
+        <v>44388</v>
       </c>
       <c r="AL7" s="139">
         <f ca="1">AK7+1</f>
-        <v>44386</v>
+        <v>44389</v>
       </c>
       <c r="AM7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44387</v>
+        <v>44390</v>
       </c>
       <c r="AN7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44388</v>
+        <v>44391</v>
       </c>
       <c r="AO7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44389</v>
+        <v>44392</v>
       </c>
       <c r="AP7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44390</v>
+        <v>44393</v>
       </c>
       <c r="AQ7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44391</v>
+        <v>44394</v>
       </c>
       <c r="AR7" s="139">
         <f ca="1">AQ7+1</f>
-        <v>44392</v>
+        <v>44395</v>
       </c>
       <c r="AS7" s="139">
         <f ca="1">AR7+1</f>
-        <v>44393</v>
+        <v>44396</v>
       </c>
       <c r="AT7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44394</v>
+        <v>44397</v>
       </c>
       <c r="AU7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44395</v>
+        <v>44398</v>
       </c>
       <c r="AV7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44396</v>
+        <v>44399</v>
       </c>
       <c r="AW7" s="139">
         <f t="shared" ca="1" si="0"/>
-        <v>44397</v>
+        <v>44400</v>
       </c>
       <c r="AX7" s="140">
         <f t="shared" ca="1" si="0"/>
-        <v>44398</v>
+        <v>44401</v>
       </c>
       <c r="AY7" s="139">
         <f ca="1">AX7+1</f>
-        <v>44399</v>
+        <v>44402</v>
       </c>
       <c r="AZ7" s="139">
         <f ca="1">AY7+1</f>
-        <v>44400</v>
+        <v>44403</v>
       </c>
       <c r="BA7" s="139">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44401</v>
+        <v>44404</v>
       </c>
       <c r="BB7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44402</v>
+        <v>44405</v>
       </c>
       <c r="BC7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44403</v>
+        <v>44406</v>
       </c>
       <c r="BD7" s="139">
         <f t="shared" ca="1" si="1"/>
-        <v>44404</v>
+        <v>44407</v>
       </c>
       <c r="BE7" s="140">
         <f t="shared" ca="1" si="1"/>
-        <v>44405</v>
+        <v>44408</v>
       </c>
       <c r="BF7" s="139">
         <f ca="1">BE7+1</f>
-        <v>44406</v>
+        <v>44409</v>
       </c>
       <c r="BG7" s="139">
         <f ca="1">BF7+1</f>
-        <v>44407</v>
+        <v>44410</v>
       </c>
       <c r="BH7" s="139">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44408</v>
+        <v>44411</v>
       </c>
       <c r="BI7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44409</v>
+        <v>44412</v>
       </c>
       <c r="BJ7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44410</v>
+        <v>44413</v>
       </c>
       <c r="BK7" s="139">
         <f t="shared" ca="1" si="2"/>
-        <v>44411</v>
+        <v>44414</v>
       </c>
       <c r="BL7" s="140">
         <f t="shared" ca="1" si="2"/>
-        <v>44412</v>
+        <v>44415</v>
       </c>
       <c r="BM7" s="35"/>
     </row>
@@ -16534,227 +16658,227 @@
       <c r="H9" s="81"/>
       <c r="I9" s="82" t="str">
         <f t="shared" ref="I9:AN9" ca="1" si="3">LEFT(TEXT(I7,"aaa"),1)</f>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="J9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="K9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="L9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="M9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="N9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="O9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="P9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="Q9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="R9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="S9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="T9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="U9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="V9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="W9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="X9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="Y9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="Z9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AA9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AB9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AC9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AD9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="AE9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="AF9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="AG9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AH9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AI9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AJ9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AK9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="AL9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="AM9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="AN9" s="82" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AO9" s="82" t="str">
         <f t="shared" ref="AO9:BL9" ca="1" si="4">LEFT(TEXT(AO7,"aaa"),1)</f>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AP9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AQ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AR9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="AS9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="AT9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="AU9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="AV9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="AW9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="AX9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="AY9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="AZ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="BA9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="BB9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="BC9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="BD9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="BE9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="BF9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>四</v>
+        <v>日</v>
       </c>
       <c r="BG9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>五</v>
+        <v>一</v>
       </c>
       <c r="BH9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>六</v>
+        <v>二</v>
       </c>
       <c r="BI9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>日</v>
+        <v>三</v>
       </c>
       <c r="BJ9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>一</v>
+        <v>四</v>
       </c>
       <c r="BK9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>二</v>
+        <v>五</v>
       </c>
       <c r="BL9" s="82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>三</v>
+        <v>六</v>
       </c>
       <c r="BM9" s="35"/>
     </row>
@@ -17078,7 +17202,7 @@
       </c>
       <c r="F12" s="87">
         <f ca="1">TODAY()</f>
-        <v>44357</v>
+        <v>44360</v>
       </c>
       <c r="G12" s="88">
         <v>3</v>
@@ -17322,7 +17446,7 @@
       <c r="E13" s="86"/>
       <c r="F13" s="87">
         <f ca="1">TODAY()+5</f>
-        <v>44362</v>
+        <v>44365</v>
       </c>
       <c r="G13" s="88">
         <v>1</v>
@@ -17568,7 +17692,7 @@
       </c>
       <c r="F14" s="87">
         <f ca="1">F12-3</f>
-        <v>44354</v>
+        <v>44357</v>
       </c>
       <c r="G14" s="88">
         <v>10</v>
@@ -17812,7 +17936,7 @@
       <c r="E15" s="86"/>
       <c r="F15" s="87">
         <f ca="1">F12+20</f>
-        <v>44377</v>
+        <v>44380</v>
       </c>
       <c r="G15" s="88">
         <v>1</v>
@@ -18058,7 +18182,7 @@
       </c>
       <c r="F16" s="87">
         <f ca="1">F12+6</f>
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="G16" s="88">
         <v>6</v>
@@ -18541,7 +18665,7 @@
       </c>
       <c r="F18" s="87">
         <f ca="1">F12+6</f>
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="G18" s="88">
         <v>13</v>
@@ -18787,7 +18911,7 @@
       </c>
       <c r="F19" s="87">
         <f ca="1">F18+2</f>
-        <v>44365</v>
+        <v>44368</v>
       </c>
       <c r="G19" s="88">
         <v>9</v>
@@ -19033,7 +19157,7 @@
       </c>
       <c r="F20" s="87">
         <f ca="1">F19+5</f>
-        <v>44370</v>
+        <v>44373</v>
       </c>
       <c r="G20" s="88">
         <v>11</v>
@@ -19277,7 +19401,7 @@
       <c r="E21" s="86"/>
       <c r="F21" s="87">
         <f ca="1">F20+2</f>
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="G21" s="88">
         <v>1</v>
@@ -19519,7 +19643,7 @@
       <c r="E22" s="86"/>
       <c r="F22" s="87">
         <f ca="1">F21+1</f>
-        <v>44373</v>
+        <v>44376</v>
       </c>
       <c r="G22" s="88">
         <v>24</v>
@@ -20000,7 +20124,7 @@
       <c r="E24" s="86"/>
       <c r="F24" s="87">
         <f ca="1">F12+15</f>
-        <v>44372</v>
+        <v>44375</v>
       </c>
       <c r="G24" s="88">
         <v>4</v>
@@ -20244,7 +20368,7 @@
       <c r="E25" s="86"/>
       <c r="F25" s="87">
         <f ca="1">F24+3</f>
-        <v>44375</v>
+        <v>44378</v>
       </c>
       <c r="G25" s="88">
         <v>14</v>
@@ -20488,7 +20612,7 @@
       <c r="E26" s="86"/>
       <c r="F26" s="87">
         <f ca="1">F25+15</f>
-        <v>44390</v>
+        <v>44393</v>
       </c>
       <c r="G26" s="88">
         <v>6</v>
@@ -20732,7 +20856,7 @@
       <c r="E27" s="86"/>
       <c r="F27" s="87">
         <f ca="1">F21+22</f>
-        <v>44394</v>
+        <v>44397</v>
       </c>
       <c r="G27" s="88">
         <v>3</v>
@@ -20976,7 +21100,7 @@
       <c r="E28" s="86"/>
       <c r="F28" s="87">
         <f ca="1">F16</f>
-        <v>44363</v>
+        <v>44366</v>
       </c>
       <c r="G28" s="88">
         <v>19</v>
@@ -21455,7 +21579,7 @@
       <c r="E30" s="86"/>
       <c r="F30" s="87">
         <f ca="1">F27+3</f>
-        <v>44397</v>
+        <v>44400</v>
       </c>
       <c r="G30" s="88">
         <v>15</v>
@@ -21697,7 +21821,7 @@
       <c r="E31" s="86"/>
       <c r="F31" s="87">
         <f ca="1">F30+14</f>
-        <v>44411</v>
+        <v>44414</v>
       </c>
       <c r="G31" s="88">
         <v>5</v>
@@ -21941,7 +22065,7 @@
       <c r="E32" s="86"/>
       <c r="F32" s="87">
         <f ca="1">F31+42</f>
-        <v>44453</v>
+        <v>44456</v>
       </c>
       <c r="G32" s="88">
         <v>1</v>
